--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6927,28 +6927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2111.754049218212</v>
+        <v>2346.57707448009</v>
       </c>
       <c r="AB2" t="n">
-        <v>2889.395054153824</v>
+        <v>3210.690276978034</v>
       </c>
       <c r="AC2" t="n">
-        <v>2613.63524547681</v>
+        <v>2904.266503175235</v>
       </c>
       <c r="AD2" t="n">
-        <v>2111754.049218212</v>
+        <v>2346577.07448009</v>
       </c>
       <c r="AE2" t="n">
-        <v>2889395.054153824</v>
+        <v>3210690.276978035</v>
       </c>
       <c r="AF2" t="n">
         <v>3.330268088248157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.12916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2613635.24547681</v>
+        <v>2904266.503175235</v>
       </c>
     </row>
     <row r="3">
@@ -7033,28 +7033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>795.0336278004105</v>
+        <v>922.1829190884539</v>
       </c>
       <c r="AB3" t="n">
-        <v>1087.800083964753</v>
+        <v>1261.771353735892</v>
       </c>
       <c r="AC3" t="n">
-        <v>983.9819706881633</v>
+        <v>1141.349666642555</v>
       </c>
       <c r="AD3" t="n">
-        <v>795033.6278004105</v>
+        <v>922182.9190884539</v>
       </c>
       <c r="AE3" t="n">
-        <v>1087800.083964753</v>
+        <v>1261771.353735892</v>
       </c>
       <c r="AF3" t="n">
         <v>6.22960905366452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.19583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>983981.9706881633</v>
+        <v>1141349.666642555</v>
       </c>
     </row>
     <row r="4">
@@ -7139,28 +7139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>629.4899155449488</v>
+        <v>737.1636495187805</v>
       </c>
       <c r="AB4" t="n">
-        <v>861.2958735836851</v>
+        <v>1008.61982663657</v>
       </c>
       <c r="AC4" t="n">
-        <v>779.0950042452081</v>
+        <v>912.3585659891927</v>
       </c>
       <c r="AD4" t="n">
-        <v>629489.9155449488</v>
+        <v>737163.6495187805</v>
       </c>
       <c r="AE4" t="n">
-        <v>861295.873583685</v>
+        <v>1008619.82663657</v>
       </c>
       <c r="AF4" t="n">
         <v>7.29336621701853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>779095.0042452081</v>
+        <v>912358.5659891927</v>
       </c>
     </row>
     <row r="5">
@@ -7245,28 +7245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>571.6940160152324</v>
+        <v>669.5119089110113</v>
       </c>
       <c r="AB5" t="n">
-        <v>782.2169740719938</v>
+        <v>916.0557305528662</v>
       </c>
       <c r="AC5" t="n">
-        <v>707.5632839149804</v>
+        <v>828.6286573211926</v>
       </c>
       <c r="AD5" t="n">
-        <v>571694.0160152323</v>
+        <v>669511.9089110113</v>
       </c>
       <c r="AE5" t="n">
-        <v>782216.9740719938</v>
+        <v>916055.7305528661</v>
       </c>
       <c r="AF5" t="n">
         <v>7.846715817927538e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.00416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>707563.2839149804</v>
+        <v>828628.6573211926</v>
       </c>
     </row>
     <row r="6">
@@ -7351,28 +7351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>535.6050698699436</v>
+        <v>633.3887973469419</v>
       </c>
       <c r="AB6" t="n">
-        <v>732.838485824073</v>
+        <v>866.6304956716974</v>
       </c>
       <c r="AC6" t="n">
-        <v>662.8974092822976</v>
+        <v>783.9204974883298</v>
       </c>
       <c r="AD6" t="n">
-        <v>535605.0698699435</v>
+        <v>633388.7973469419</v>
       </c>
       <c r="AE6" t="n">
-        <v>732838.485824073</v>
+        <v>866630.4956716974</v>
       </c>
       <c r="AF6" t="n">
         <v>8.196279078406476e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.15</v>
       </c>
       <c r="AH6" t="n">
-        <v>662897.4092822976</v>
+        <v>783920.4974883299</v>
       </c>
     </row>
     <row r="7">
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>508.8880325244151</v>
+        <v>606.7390798091178</v>
       </c>
       <c r="AB7" t="n">
-        <v>696.2830566554197</v>
+        <v>830.1671764338859</v>
       </c>
       <c r="AC7" t="n">
-        <v>629.8307789676334</v>
+        <v>750.9371862619849</v>
       </c>
       <c r="AD7" t="n">
-        <v>508888.0325244151</v>
+        <v>606739.0798091178</v>
       </c>
       <c r="AE7" t="n">
-        <v>696283.0566554198</v>
+        <v>830167.1764338858</v>
       </c>
       <c r="AF7" t="n">
         <v>8.437733873629537e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>629830.7789676334</v>
+        <v>750937.186261985</v>
       </c>
     </row>
     <row r="8">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>498.1243481115238</v>
+        <v>586.1537197369546</v>
       </c>
       <c r="AB8" t="n">
-        <v>681.5557087814597</v>
+        <v>802.0013786211605</v>
       </c>
       <c r="AC8" t="n">
-        <v>616.5089885048016</v>
+        <v>725.4594926615607</v>
       </c>
       <c r="AD8" t="n">
-        <v>498124.3481115238</v>
+        <v>586153.7197369545</v>
       </c>
       <c r="AE8" t="n">
-        <v>681555.7087814596</v>
+        <v>802001.3786211605</v>
       </c>
       <c r="AF8" t="n">
         <v>8.59707143740388e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.25416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>616508.9885048015</v>
+        <v>725459.4926615608</v>
       </c>
     </row>
     <row r="9">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>479.6729447730224</v>
+        <v>577.4898266389444</v>
       </c>
       <c r="AB9" t="n">
-        <v>656.3096847152573</v>
+        <v>790.1470578604756</v>
       </c>
       <c r="AC9" t="n">
-        <v>593.6724095424604</v>
+        <v>714.7365316366319</v>
       </c>
       <c r="AD9" t="n">
-        <v>479672.9447730224</v>
+        <v>577489.8266389443</v>
       </c>
       <c r="AE9" t="n">
-        <v>656309.6847152573</v>
+        <v>790147.0578604756</v>
       </c>
       <c r="AF9" t="n">
         <v>8.7296643982752e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.97916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>593672.4095424603</v>
+        <v>714736.5316366318</v>
       </c>
     </row>
     <row r="10">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>472.0468445391949</v>
+        <v>560.14353597233</v>
       </c>
       <c r="AB10" t="n">
-        <v>645.8753179355371</v>
+        <v>766.4130977060795</v>
       </c>
       <c r="AC10" t="n">
-        <v>584.2338840834707</v>
+        <v>693.2677073285489</v>
       </c>
       <c r="AD10" t="n">
-        <v>472046.8445391949</v>
+        <v>560143.53597233</v>
       </c>
       <c r="AE10" t="n">
-        <v>645875.3179355371</v>
+        <v>766413.0977060795</v>
       </c>
       <c r="AF10" t="n">
         <v>8.841916393558309e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>584233.8840834707</v>
+        <v>693267.7073285489</v>
       </c>
     </row>
     <row r="11">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>466.6065107462922</v>
+        <v>554.7032021794273</v>
       </c>
       <c r="AB11" t="n">
-        <v>638.4316132294997</v>
+        <v>758.969393000042</v>
       </c>
       <c r="AC11" t="n">
-        <v>577.5005961072723</v>
+        <v>686.5344193523505</v>
       </c>
       <c r="AD11" t="n">
-        <v>466606.5107462922</v>
+        <v>554703.2021794273</v>
       </c>
       <c r="AE11" t="n">
-        <v>638431.6132294997</v>
+        <v>758969.3930000421</v>
       </c>
       <c r="AF11" t="n">
         <v>8.924786994102883e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.5875</v>
       </c>
       <c r="AH11" t="n">
-        <v>577500.5961072723</v>
+        <v>686534.4193523505</v>
       </c>
     </row>
     <row r="12">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>462.5205419360905</v>
+        <v>550.5157481427403</v>
       </c>
       <c r="AB12" t="n">
-        <v>632.8410104431598</v>
+        <v>753.239933649613</v>
       </c>
       <c r="AC12" t="n">
-        <v>572.4435526044006</v>
+        <v>681.3517715609797</v>
       </c>
       <c r="AD12" t="n">
-        <v>462520.5419360904</v>
+        <v>550515.7481427403</v>
       </c>
       <c r="AE12" t="n">
-        <v>632841.0104431598</v>
+        <v>753239.9336496131</v>
       </c>
       <c r="AF12" t="n">
         <v>8.979029569004788e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.47916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>572443.5526044006</v>
+        <v>681351.7715609798</v>
       </c>
     </row>
     <row r="13">
@@ -8093,28 +8093,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>458.2473967140995</v>
+        <v>546.2426029207494</v>
       </c>
       <c r="AB13" t="n">
-        <v>626.9943046325694</v>
+        <v>747.3932278390226</v>
       </c>
       <c r="AC13" t="n">
-        <v>567.1548481904698</v>
+        <v>676.0630671470489</v>
       </c>
       <c r="AD13" t="n">
-        <v>458247.3967140995</v>
+        <v>546242.6029207493</v>
       </c>
       <c r="AE13" t="n">
-        <v>626994.3046325694</v>
+        <v>747393.2278390226</v>
       </c>
       <c r="AF13" t="n">
         <v>9.037038989385989e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.36666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>567154.8481904698</v>
+        <v>676063.0671470489</v>
       </c>
     </row>
     <row r="14">
@@ -8199,28 +8199,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>454.4025003888588</v>
+        <v>542.3977065955087</v>
       </c>
       <c r="AB14" t="n">
-        <v>621.733547855521</v>
+        <v>742.132471061974</v>
       </c>
       <c r="AC14" t="n">
-        <v>562.3961706567042</v>
+        <v>671.3043896132833</v>
       </c>
       <c r="AD14" t="n">
-        <v>454402.5003888588</v>
+        <v>542397.7065955087</v>
       </c>
       <c r="AE14" t="n">
-        <v>621733.547855521</v>
+        <v>742132.4710619739</v>
       </c>
       <c r="AF14" t="n">
         <v>9.093541671575474e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.25833333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>562396.1706567041</v>
+        <v>671304.3896132833</v>
       </c>
     </row>
     <row r="15">
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>451.9592515902402</v>
+        <v>539.9544577968901</v>
       </c>
       <c r="AB15" t="n">
-        <v>618.3905870607213</v>
+        <v>738.7895102671744</v>
       </c>
       <c r="AC15" t="n">
-        <v>559.3722573482853</v>
+        <v>668.2804763048645</v>
       </c>
       <c r="AD15" t="n">
-        <v>451959.2515902402</v>
+        <v>539954.4577968901</v>
       </c>
       <c r="AE15" t="n">
-        <v>618390.5870607212</v>
+        <v>738789.5102671743</v>
       </c>
       <c r="AF15" t="n">
         <v>9.122546381766076e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.20416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>559372.2573482853</v>
+        <v>668280.4763048645</v>
       </c>
     </row>
     <row r="16">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>448.3406305749264</v>
+        <v>526.6156463487896</v>
       </c>
       <c r="AB16" t="n">
-        <v>613.4394301452767</v>
+        <v>720.538759977054</v>
       </c>
       <c r="AC16" t="n">
-        <v>554.8936318998584</v>
+        <v>651.7715520073443</v>
       </c>
       <c r="AD16" t="n">
-        <v>448340.6305749264</v>
+        <v>526615.6463487896</v>
       </c>
       <c r="AE16" t="n">
-        <v>613439.4301452767</v>
+        <v>720538.7599770541</v>
       </c>
       <c r="AF16" t="n">
         <v>9.165111735682153e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.125</v>
       </c>
       <c r="AH16" t="n">
-        <v>554893.6318998584</v>
+        <v>651771.5520073443</v>
       </c>
     </row>
     <row r="17">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>445.2545107595271</v>
+        <v>523.5295265333904</v>
       </c>
       <c r="AB17" t="n">
-        <v>609.2168648638502</v>
+        <v>716.3161946956276</v>
       </c>
       <c r="AC17" t="n">
-        <v>551.0740623224835</v>
+        <v>647.9519824299696</v>
       </c>
       <c r="AD17" t="n">
-        <v>445254.5107595271</v>
+        <v>523529.5265333903</v>
       </c>
       <c r="AE17" t="n">
-        <v>609216.8648638502</v>
+        <v>716316.1946956275</v>
       </c>
       <c r="AF17" t="n">
         <v>9.206923720502371e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.04583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>551074.0623224835</v>
+        <v>647951.9824299696</v>
       </c>
     </row>
     <row r="18">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>443.4188190988635</v>
+        <v>521.6938348727267</v>
       </c>
       <c r="AB18" t="n">
-        <v>606.7051905487299</v>
+        <v>713.804520380507</v>
       </c>
       <c r="AC18" t="n">
-        <v>548.8020986788413</v>
+        <v>645.6800187863272</v>
       </c>
       <c r="AD18" t="n">
-        <v>443418.8190988635</v>
+        <v>521693.8348727267</v>
       </c>
       <c r="AE18" t="n">
-        <v>606705.1905487298</v>
+        <v>713804.520380507</v>
       </c>
       <c r="AF18" t="n">
         <v>9.220107679679919e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.02083333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>548802.0986788413</v>
+        <v>645680.0187863272</v>
       </c>
     </row>
     <row r="19">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>429.8682517255139</v>
+        <v>517.9307777398682</v>
       </c>
       <c r="AB19" t="n">
-        <v>588.1647064596716</v>
+        <v>708.6557395969662</v>
       </c>
       <c r="AC19" t="n">
-        <v>532.0310923695099</v>
+        <v>641.0226304144081</v>
       </c>
       <c r="AD19" t="n">
-        <v>429868.2517255138</v>
+        <v>517930.7777398682</v>
       </c>
       <c r="AE19" t="n">
-        <v>588164.7064596716</v>
+        <v>708655.7395969662</v>
       </c>
       <c r="AF19" t="n">
         <v>9.264933140883573e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.94166666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>532031.0923695099</v>
+        <v>641022.6304144082</v>
       </c>
     </row>
     <row r="20">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>427.8731132381998</v>
+        <v>515.9356392525541</v>
       </c>
       <c r="AB20" t="n">
-        <v>585.4348699620303</v>
+        <v>705.9259030993251</v>
       </c>
       <c r="AC20" t="n">
-        <v>529.561787635854</v>
+        <v>638.5533256807523</v>
       </c>
       <c r="AD20" t="n">
-        <v>427873.1132381998</v>
+        <v>515935.6392525541</v>
       </c>
       <c r="AE20" t="n">
-        <v>585434.8699620303</v>
+        <v>705925.903099325</v>
       </c>
       <c r="AF20" t="n">
         <v>9.283767368280068e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.90416666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>529561.787635854</v>
+        <v>638553.3256807523</v>
       </c>
     </row>
     <row r="21">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>426.1584718296169</v>
+        <v>514.2209978439712</v>
       </c>
       <c r="AB21" t="n">
-        <v>583.088821942167</v>
+        <v>703.5798550794616</v>
       </c>
       <c r="AC21" t="n">
-        <v>527.4396431463074</v>
+        <v>636.4311811912056</v>
       </c>
       <c r="AD21" t="n">
-        <v>426158.4718296169</v>
+        <v>514220.9978439712</v>
       </c>
       <c r="AE21" t="n">
-        <v>583088.821942167</v>
+        <v>703579.8550794616</v>
       </c>
       <c r="AF21" t="n">
         <v>9.296951327457615e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.88333333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>527439.6431463074</v>
+        <v>636431.1811912056</v>
       </c>
     </row>
     <row r="22">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>423.4894617966632</v>
+        <v>511.5519878110176</v>
       </c>
       <c r="AB22" t="n">
-        <v>579.4369646666676</v>
+        <v>699.9279978039621</v>
       </c>
       <c r="AC22" t="n">
-        <v>524.1363140037676</v>
+        <v>633.1278520486659</v>
       </c>
       <c r="AD22" t="n">
-        <v>423489.4617966632</v>
+        <v>511551.9878110175</v>
       </c>
       <c r="AE22" t="n">
-        <v>579436.9646666675</v>
+        <v>699927.9978039621</v>
       </c>
       <c r="AF22" t="n">
         <v>9.322942561264778e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>524136.3140037676</v>
+        <v>633127.8520486659</v>
       </c>
     </row>
     <row r="23">
@@ -9153,28 +9153,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>421.0511426776403</v>
+        <v>509.1136686919946</v>
       </c>
       <c r="AB23" t="n">
-        <v>576.1007488769727</v>
+        <v>696.5917820142673</v>
       </c>
       <c r="AC23" t="n">
-        <v>521.1185019666331</v>
+        <v>630.1100400115314</v>
       </c>
       <c r="AD23" t="n">
-        <v>421051.1426776403</v>
+        <v>509113.6686919946</v>
       </c>
       <c r="AE23" t="n">
-        <v>576100.7488769727</v>
+        <v>696591.7820142673</v>
       </c>
       <c r="AF23" t="n">
         <v>9.340270050469552e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.80416666666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>521118.5019666331</v>
+        <v>630110.0400115314</v>
       </c>
     </row>
     <row r="24">
@@ -9259,28 +9259,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>420.3197439955497</v>
+        <v>508.382270009904</v>
       </c>
       <c r="AB24" t="n">
-        <v>575.1000169331038</v>
+        <v>695.5910500703985</v>
       </c>
       <c r="AC24" t="n">
-        <v>520.2132784749509</v>
+        <v>629.2048165198493</v>
       </c>
       <c r="AD24" t="n">
-        <v>420319.7439955497</v>
+        <v>508382.270009904</v>
       </c>
       <c r="AE24" t="n">
-        <v>575100.0169331038</v>
+        <v>695591.0500703985</v>
       </c>
       <c r="AF24" t="n">
         <v>9.336126520442323e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.8125</v>
       </c>
       <c r="AH24" t="n">
-        <v>520213.2784749509</v>
+        <v>629204.8165198492</v>
       </c>
     </row>
     <row r="25">
@@ -9365,28 +9365,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>418.578323125344</v>
+        <v>506.6408491396984</v>
       </c>
       <c r="AB25" t="n">
-        <v>572.7173280724219</v>
+        <v>693.2083612097164</v>
       </c>
       <c r="AC25" t="n">
-        <v>518.0579900950075</v>
+        <v>627.0495281399059</v>
       </c>
       <c r="AD25" t="n">
-        <v>418578.323125344</v>
+        <v>506640.8491396984</v>
       </c>
       <c r="AE25" t="n">
-        <v>572717.3280724218</v>
+        <v>693208.3612097164</v>
       </c>
       <c r="AF25" t="n">
         <v>9.356467486030538e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.775</v>
       </c>
       <c r="AH25" t="n">
-        <v>518057.9900950076</v>
+        <v>627049.5281399059</v>
       </c>
     </row>
     <row r="26">
@@ -9471,28 +9471,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>415.8371452511257</v>
+        <v>503.89967126548</v>
       </c>
       <c r="AB26" t="n">
-        <v>568.9667275726833</v>
+        <v>689.4577607099779</v>
       </c>
       <c r="AC26" t="n">
-        <v>514.6653416429633</v>
+        <v>623.6568796878615</v>
       </c>
       <c r="AD26" t="n">
-        <v>415837.1452511257</v>
+        <v>503899.67126548</v>
       </c>
       <c r="AE26" t="n">
-        <v>568966.7275726834</v>
+        <v>689457.7607099779</v>
       </c>
       <c r="AF26" t="n">
         <v>9.381328666193909e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.72916666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>514665.3416429633</v>
+        <v>623656.8796878615</v>
       </c>
     </row>
     <row r="27">
@@ -9577,28 +9577,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>415.2609737667456</v>
+        <v>503.3234997810999</v>
       </c>
       <c r="AB27" t="n">
-        <v>568.1783843288626</v>
+        <v>688.6694174661574</v>
       </c>
       <c r="AC27" t="n">
-        <v>513.9522367718861</v>
+        <v>622.9437748167844</v>
       </c>
       <c r="AD27" t="n">
-        <v>415260.9737667456</v>
+        <v>503323.4997811</v>
       </c>
       <c r="AE27" t="n">
-        <v>568178.3843288627</v>
+        <v>688669.4174661573</v>
       </c>
       <c r="AF27" t="n">
         <v>9.375301713427033e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.74166666666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>513952.2367718861</v>
+        <v>622943.7748167844</v>
       </c>
     </row>
     <row r="28">
@@ -9683,28 +9683,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>413.446267046727</v>
+        <v>501.5087930610812</v>
       </c>
       <c r="AB28" t="n">
-        <v>565.6954225353229</v>
+        <v>686.1864556726175</v>
       </c>
       <c r="AC28" t="n">
-        <v>511.7062453670631</v>
+        <v>620.6977834119614</v>
       </c>
       <c r="AD28" t="n">
-        <v>413446.2670467269</v>
+        <v>501508.7930610813</v>
       </c>
       <c r="AE28" t="n">
-        <v>565695.422535323</v>
+        <v>686186.4556726175</v>
       </c>
       <c r="AF28" t="n">
         <v>9.397149417206965e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>16.70416666666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>511706.2453670631</v>
+        <v>620697.7834119614</v>
       </c>
     </row>
     <row r="29">
@@ -9789,28 +9789,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>414.361348049339</v>
+        <v>502.4238740636933</v>
       </c>
       <c r="AB29" t="n">
-        <v>566.9474767336214</v>
+        <v>687.4385098709161</v>
       </c>
       <c r="AC29" t="n">
-        <v>512.8388052699449</v>
+        <v>621.8303433148433</v>
       </c>
       <c r="AD29" t="n">
-        <v>414361.348049339</v>
+        <v>502423.8740636933</v>
       </c>
       <c r="AE29" t="n">
-        <v>566947.4767336214</v>
+        <v>687438.509870916</v>
       </c>
       <c r="AF29" t="n">
         <v>9.397526101754895e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="AH29" t="n">
-        <v>512838.8052699449</v>
+        <v>621830.3433148433</v>
       </c>
     </row>
   </sheetData>
@@ -10086,28 +10086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1349.754808936068</v>
+        <v>1533.583757561637</v>
       </c>
       <c r="AB2" t="n">
-        <v>1846.794076565884</v>
+        <v>2098.316954036228</v>
       </c>
       <c r="AC2" t="n">
-        <v>1670.538641890201</v>
+        <v>1898.056528949352</v>
       </c>
       <c r="AD2" t="n">
-        <v>1349754.808936068</v>
+        <v>1533583.757561637</v>
       </c>
       <c r="AE2" t="n">
-        <v>1846794.076565884</v>
+        <v>2098316.954036228</v>
       </c>
       <c r="AF2" t="n">
         <v>4.629818471539174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.09166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1670538.641890201</v>
+        <v>1898056.528949352</v>
       </c>
     </row>
     <row r="3">
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>655.3462602737493</v>
+        <v>761.7991465360147</v>
       </c>
       <c r="AB3" t="n">
-        <v>896.6736651430525</v>
+        <v>1042.327200496973</v>
       </c>
       <c r="AC3" t="n">
-        <v>811.0963890311921</v>
+        <v>942.8489553969551</v>
       </c>
       <c r="AD3" t="n">
-        <v>655346.2602737492</v>
+        <v>761799.1465360147</v>
       </c>
       <c r="AE3" t="n">
-        <v>896673.6651430525</v>
+        <v>1042327.200496973</v>
       </c>
       <c r="AF3" t="n">
         <v>7.441589290807425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.07916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>811096.3890311921</v>
+        <v>942848.9553969551</v>
       </c>
     </row>
     <row r="4">
@@ -10298,28 +10298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>542.897307895193</v>
+        <v>639.6354795885698</v>
       </c>
       <c r="AB4" t="n">
-        <v>742.8160476010559</v>
+        <v>875.1774818988636</v>
       </c>
       <c r="AC4" t="n">
-        <v>671.9227265668809</v>
+        <v>791.6517713457458</v>
       </c>
       <c r="AD4" t="n">
-        <v>542897.307895193</v>
+        <v>639635.4795885697</v>
       </c>
       <c r="AE4" t="n">
-        <v>742816.0476010558</v>
+        <v>875177.4818988636</v>
       </c>
       <c r="AF4" t="n">
         <v>8.446028676113306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>671922.7265668809</v>
+        <v>791651.7713457458</v>
       </c>
     </row>
     <row r="5">
@@ -10404,28 +10404,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>498.7349622588476</v>
+        <v>585.8267502208969</v>
       </c>
       <c r="AB5" t="n">
-        <v>682.3911779962231</v>
+        <v>801.5540045044137</v>
       </c>
       <c r="AC5" t="n">
-        <v>617.2647217102964</v>
+        <v>725.0548153026227</v>
       </c>
       <c r="AD5" t="n">
-        <v>498734.9622588476</v>
+        <v>585826.7502208969</v>
       </c>
       <c r="AE5" t="n">
-        <v>682391.1779962231</v>
+        <v>801554.0045044137</v>
       </c>
       <c r="AF5" t="n">
         <v>8.974832833416322e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.13333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>617264.7217102963</v>
+        <v>725054.8153026227</v>
       </c>
     </row>
     <row r="6">
@@ -10510,28 +10510,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>469.1590379280445</v>
+        <v>556.2166604713132</v>
       </c>
       <c r="AB6" t="n">
-        <v>641.9240935291249</v>
+        <v>761.0401734040678</v>
       </c>
       <c r="AC6" t="n">
-        <v>580.6597589888281</v>
+        <v>688.4075673809747</v>
       </c>
       <c r="AD6" t="n">
-        <v>469159.0379280446</v>
+        <v>556216.6604713132</v>
       </c>
       <c r="AE6" t="n">
-        <v>641924.0935291249</v>
+        <v>761040.1734040678</v>
       </c>
       <c r="AF6" t="n">
         <v>9.312393710135858e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.44166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>580659.7589888282</v>
+        <v>688407.5673809747</v>
       </c>
     </row>
     <row r="7">
@@ -10616,28 +10616,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>456.5591182344392</v>
+        <v>543.6167407777077</v>
       </c>
       <c r="AB7" t="n">
-        <v>624.6843275351084</v>
+        <v>743.8004074100513</v>
       </c>
       <c r="AC7" t="n">
-        <v>565.0653320651171</v>
+        <v>672.8131404572636</v>
       </c>
       <c r="AD7" t="n">
-        <v>456559.1182344392</v>
+        <v>543616.7407777078</v>
       </c>
       <c r="AE7" t="n">
-        <v>624684.3275351084</v>
+        <v>743800.4074100513</v>
       </c>
       <c r="AF7" t="n">
         <v>9.534136996674459e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.0125</v>
       </c>
       <c r="AH7" t="n">
-        <v>565065.3320651171</v>
+        <v>672813.1404572636</v>
       </c>
     </row>
     <row r="8">
@@ -10722,28 +10722,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>437.9188984058994</v>
+        <v>525.0438407568724</v>
       </c>
       <c r="AB8" t="n">
-        <v>599.17995641724</v>
+        <v>718.3881462230244</v>
       </c>
       <c r="AC8" t="n">
-        <v>541.9950623311285</v>
+        <v>649.8261898115938</v>
       </c>
       <c r="AD8" t="n">
-        <v>437918.8984058994</v>
+        <v>525043.8407568724</v>
       </c>
       <c r="AE8" t="n">
-        <v>599179.95641724</v>
+        <v>718388.1462230243</v>
       </c>
       <c r="AF8" t="n">
         <v>9.69117081111908e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.72083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>541995.0623311284</v>
+        <v>649826.1898115939</v>
       </c>
     </row>
     <row r="9">
@@ -10828,28 +10828,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>431.8172147926423</v>
+        <v>518.9421571436153</v>
       </c>
       <c r="AB9" t="n">
-        <v>590.8313637102989</v>
+        <v>710.0395535160832</v>
       </c>
       <c r="AC9" t="n">
-        <v>534.4432475948141</v>
+        <v>642.2743750752796</v>
       </c>
       <c r="AD9" t="n">
-        <v>431817.2147926423</v>
+        <v>518942.1571436153</v>
       </c>
       <c r="AE9" t="n">
-        <v>590831.3637102989</v>
+        <v>710039.5535160832</v>
       </c>
       <c r="AF9" t="n">
         <v>9.794211371778278e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.53333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>534443.2475948142</v>
+        <v>642274.3750752796</v>
       </c>
     </row>
     <row r="10">
@@ -10934,28 +10934,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>426.0413012873298</v>
+        <v>513.0647584118176</v>
       </c>
       <c r="AB10" t="n">
-        <v>582.9285040370103</v>
+        <v>701.9978372787053</v>
       </c>
       <c r="AC10" t="n">
-        <v>527.2946257570111</v>
+        <v>635.0001489489777</v>
       </c>
       <c r="AD10" t="n">
-        <v>426041.3012873298</v>
+        <v>513064.7584118176</v>
       </c>
       <c r="AE10" t="n">
-        <v>582928.5040370103</v>
+        <v>701997.8372787053</v>
       </c>
       <c r="AF10" t="n">
         <v>9.887360038614194e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.37083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>527294.6257570111</v>
+        <v>635000.1489489777</v>
       </c>
     </row>
     <row r="11">
@@ -11040,28 +11040,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>421.200776823629</v>
+        <v>508.2242339481169</v>
       </c>
       <c r="AB11" t="n">
-        <v>576.3054849169073</v>
+        <v>695.3748181586024</v>
       </c>
       <c r="AC11" t="n">
-        <v>521.303698286265</v>
+        <v>629.0092214782314</v>
       </c>
       <c r="AD11" t="n">
-        <v>421200.776823629</v>
+        <v>508224.2339481169</v>
       </c>
       <c r="AE11" t="n">
-        <v>576305.4849169073</v>
+        <v>695374.8181586023</v>
       </c>
       <c r="AF11" t="n">
         <v>9.962785729016729e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.2375</v>
       </c>
       <c r="AH11" t="n">
-        <v>521303.698286265</v>
+        <v>629009.2214782315</v>
       </c>
     </row>
     <row r="12">
@@ -11146,28 +11146,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>416.2649830953506</v>
+        <v>493.6762219072919</v>
       </c>
       <c r="AB12" t="n">
-        <v>569.5521141860255</v>
+        <v>675.4695862713512</v>
       </c>
       <c r="AC12" t="n">
-        <v>515.1948597795233</v>
+        <v>611.0037169851314</v>
       </c>
       <c r="AD12" t="n">
-        <v>416264.9830953506</v>
+        <v>493676.2219072919</v>
       </c>
       <c r="AE12" t="n">
-        <v>569552.1141860255</v>
+        <v>675469.5862713512</v>
       </c>
       <c r="AF12" t="n">
         <v>1.003986006838981e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.10416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>515194.8597795233</v>
+        <v>611003.7169851314</v>
       </c>
     </row>
     <row r="13">
@@ -11252,28 +11252,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>413.0935400908773</v>
+        <v>490.5047789028185</v>
       </c>
       <c r="AB13" t="n">
-        <v>565.2128059531144</v>
+        <v>671.13027803844</v>
       </c>
       <c r="AC13" t="n">
-        <v>511.2696890341037</v>
+        <v>607.0785462397118</v>
       </c>
       <c r="AD13" t="n">
-        <v>413093.5400908773</v>
+        <v>490504.7789028186</v>
       </c>
       <c r="AE13" t="n">
-        <v>565212.8059531144</v>
+        <v>671130.27803844</v>
       </c>
       <c r="AF13" t="n">
         <v>1.007736683246976e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.04166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>511269.6890341038</v>
+        <v>607078.5462397118</v>
       </c>
     </row>
     <row r="14">
@@ -11358,28 +11358,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>399.0952775920954</v>
+        <v>486.1860545242876</v>
       </c>
       <c r="AB14" t="n">
-        <v>546.0597656425248</v>
+        <v>665.2212088150615</v>
       </c>
       <c r="AC14" t="n">
-        <v>493.9445880092961</v>
+        <v>601.7334302895816</v>
       </c>
       <c r="AD14" t="n">
-        <v>399095.2775920954</v>
+        <v>486186.0545242876</v>
       </c>
       <c r="AE14" t="n">
-        <v>546059.7656425248</v>
+        <v>665221.2088150615</v>
       </c>
       <c r="AF14" t="n">
         <v>1.013465738419627e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.94583333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>493944.5880092961</v>
+        <v>601733.4302895817</v>
       </c>
     </row>
     <row r="15">
@@ -11464,28 +11464,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>395.9082772362717</v>
+        <v>482.9990541684638</v>
       </c>
       <c r="AB15" t="n">
-        <v>541.6991711551541</v>
+        <v>660.8606143276905</v>
       </c>
       <c r="AC15" t="n">
-        <v>490.0001625396672</v>
+        <v>597.7890048199527</v>
       </c>
       <c r="AD15" t="n">
-        <v>395908.2772362716</v>
+        <v>482999.0541684638</v>
       </c>
       <c r="AE15" t="n">
-        <v>541699.1711551541</v>
+        <v>660860.6143276906</v>
       </c>
       <c r="AF15" t="n">
         <v>1.017381279724677e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.87916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>490000.1625396672</v>
+        <v>597789.0048199526</v>
       </c>
     </row>
     <row r="16">
@@ -11570,28 +11570,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>393.3543991473969</v>
+        <v>480.445176079589</v>
       </c>
       <c r="AB16" t="n">
-        <v>538.2048424848061</v>
+        <v>657.3662856573426</v>
       </c>
       <c r="AC16" t="n">
-        <v>486.8393276932961</v>
+        <v>594.6281699735816</v>
       </c>
       <c r="AD16" t="n">
-        <v>393354.3991473969</v>
+        <v>480445.1760795891</v>
       </c>
       <c r="AE16" t="n">
-        <v>538204.8424848061</v>
+        <v>657366.2856573426</v>
       </c>
       <c r="AF16" t="n">
         <v>1.01931844226507e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.85</v>
       </c>
       <c r="AH16" t="n">
-        <v>486839.3276932961</v>
+        <v>594628.1699735817</v>
       </c>
     </row>
     <row r="17">
@@ -11676,28 +11676,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>389.6690957918892</v>
+        <v>476.7598727240814</v>
       </c>
       <c r="AB17" t="n">
-        <v>533.1624478496911</v>
+        <v>652.3238910222277</v>
       </c>
       <c r="AC17" t="n">
-        <v>482.2781721251112</v>
+        <v>590.0670144053968</v>
       </c>
       <c r="AD17" t="n">
-        <v>389669.0957918892</v>
+        <v>476759.8727240814</v>
       </c>
       <c r="AE17" t="n">
-        <v>533162.4478496911</v>
+        <v>652323.8910222277</v>
       </c>
       <c r="AF17" t="n">
         <v>1.023811010709811e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.775</v>
       </c>
       <c r="AH17" t="n">
-        <v>482278.1721251112</v>
+        <v>590067.0144053968</v>
       </c>
     </row>
     <row r="18">
@@ -11782,28 +11782,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>387.2356910214143</v>
+        <v>474.3264679536064</v>
       </c>
       <c r="AB18" t="n">
-        <v>529.8329560884854</v>
+        <v>648.994399261022</v>
       </c>
       <c r="AC18" t="n">
-        <v>479.266442384624</v>
+        <v>587.0552846649095</v>
       </c>
       <c r="AD18" t="n">
-        <v>387235.6910214142</v>
+        <v>474326.4679536064</v>
       </c>
       <c r="AE18" t="n">
-        <v>529832.9560884854</v>
+        <v>648994.399261022</v>
       </c>
       <c r="AF18" t="n">
         <v>1.02558330835315e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.74583333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>479266.442384624</v>
+        <v>587055.2846649096</v>
       </c>
     </row>
     <row r="19">
@@ -11888,28 +11888,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>384.2320320468805</v>
+        <v>471.3228089790727</v>
       </c>
       <c r="AB19" t="n">
-        <v>525.7232173674466</v>
+        <v>644.8846605399832</v>
       </c>
       <c r="AC19" t="n">
-        <v>475.5489313590665</v>
+        <v>583.337773639352</v>
       </c>
       <c r="AD19" t="n">
-        <v>384232.0320468805</v>
+        <v>471322.8089790727</v>
       </c>
       <c r="AE19" t="n">
-        <v>525723.2173674466</v>
+        <v>644884.6605399832</v>
       </c>
       <c r="AF19" t="n">
         <v>1.028015065584707e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.70416666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>475548.9313590665</v>
+        <v>583337.7736393521</v>
       </c>
     </row>
     <row r="20">
@@ -11994,28 +11994,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>383.4857266276217</v>
+        <v>470.5765035598138</v>
       </c>
       <c r="AB20" t="n">
-        <v>524.7020893681453</v>
+        <v>643.8635325406817</v>
       </c>
       <c r="AC20" t="n">
-        <v>474.6252583828564</v>
+        <v>582.414100663142</v>
       </c>
       <c r="AD20" t="n">
-        <v>383485.7266276217</v>
+        <v>470576.5035598138</v>
       </c>
       <c r="AE20" t="n">
-        <v>524702.0893681452</v>
+        <v>643863.5325406818</v>
       </c>
       <c r="AF20" t="n">
         <v>1.029292768536881e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>474625.2583828564</v>
+        <v>582414.100663142</v>
       </c>
     </row>
     <row r="21">
@@ -12100,28 +12100,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>384.5330134498501</v>
+        <v>471.6237903820423</v>
       </c>
       <c r="AB21" t="n">
-        <v>526.135033401352</v>
+        <v>645.2964765738884</v>
       </c>
       <c r="AC21" t="n">
-        <v>475.9214442486835</v>
+        <v>583.7102865289689</v>
       </c>
       <c r="AD21" t="n">
-        <v>384533.0134498501</v>
+        <v>471623.7903820423</v>
       </c>
       <c r="AE21" t="n">
-        <v>526135.033401352</v>
+        <v>645296.4765738884</v>
       </c>
       <c r="AF21" t="n">
         <v>1.029210336088353e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.6875</v>
       </c>
       <c r="AH21" t="n">
-        <v>475921.4442486835</v>
+        <v>583710.286528969</v>
       </c>
     </row>
   </sheetData>
@@ -12397,28 +12397,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.2135366864699</v>
+        <v>659.766468465353</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.4075051998788</v>
+        <v>902.7215889966276</v>
       </c>
       <c r="AC2" t="n">
-        <v>666.1258064580264</v>
+        <v>816.5671075204965</v>
       </c>
       <c r="AD2" t="n">
-        <v>538213.5366864699</v>
+        <v>659766.468465353</v>
       </c>
       <c r="AE2" t="n">
-        <v>736407.5051998787</v>
+        <v>902721.5889966276</v>
       </c>
       <c r="AF2" t="n">
         <v>1.008366793949874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>666125.8064580264</v>
+        <v>816567.1075204965</v>
       </c>
     </row>
     <row r="3">
@@ -12503,28 +12503,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.0735588368804</v>
+        <v>478.2397401054955</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.1888284990439</v>
+        <v>654.3487108606196</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.729403463368</v>
+        <v>591.898588280265</v>
       </c>
       <c r="AD3" t="n">
-        <v>394073.5588368804</v>
+        <v>478239.7401054955</v>
       </c>
       <c r="AE3" t="n">
-        <v>539188.8284990439</v>
+        <v>654348.7108606196</v>
       </c>
       <c r="AF3" t="n">
         <v>1.256086295019486e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>487729.4034633681</v>
+        <v>591898.588280265</v>
       </c>
     </row>
     <row r="4">
@@ -12609,28 +12609,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.8476518659004</v>
+        <v>442.334138425604</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.3087473551495</v>
+        <v>605.2210825988423</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.7550704146076</v>
+        <v>547.4596319087324</v>
       </c>
       <c r="AD4" t="n">
-        <v>348847.6518659004</v>
+        <v>442334.138425604</v>
       </c>
       <c r="AE4" t="n">
-        <v>477308.7473551495</v>
+        <v>605221.0825988422</v>
       </c>
       <c r="AF4" t="n">
         <v>1.339388161612333e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>431755.0704146076</v>
+        <v>547459.6319087323</v>
       </c>
     </row>
     <row r="5">
@@ -12715,28 +12715,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.4085409088685</v>
+        <v>418.5063913399219</v>
       </c>
       <c r="AB5" t="n">
-        <v>457.5525187351208</v>
+        <v>572.6189078302009</v>
       </c>
       <c r="AC5" t="n">
-        <v>413.8843485260335</v>
+        <v>517.9689629425706</v>
       </c>
       <c r="AD5" t="n">
-        <v>334408.5409088685</v>
+        <v>418506.3913399219</v>
       </c>
       <c r="AE5" t="n">
-        <v>457552.5187351208</v>
+        <v>572618.9078302009</v>
       </c>
       <c r="AF5" t="n">
         <v>1.384030598405184e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.32083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>413884.3485260335</v>
+        <v>517968.9629425705</v>
       </c>
     </row>
     <row r="6">
@@ -12821,28 +12821,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>325.0506739636326</v>
+        <v>399.8613734925211</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.7486723406961</v>
+        <v>547.1079718512531</v>
       </c>
       <c r="AC6" t="n">
-        <v>402.3024832611814</v>
+        <v>494.8927548886299</v>
       </c>
       <c r="AD6" t="n">
-        <v>325050.6739636326</v>
+        <v>399861.3734925211</v>
       </c>
       <c r="AE6" t="n">
-        <v>444748.6723406962</v>
+        <v>547107.9718512531</v>
       </c>
       <c r="AF6" t="n">
         <v>1.40917073355786e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.0125</v>
       </c>
       <c r="AH6" t="n">
-        <v>402302.4832611814</v>
+        <v>494892.7548886299</v>
       </c>
     </row>
     <row r="7">
@@ -12927,28 +12927,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>313.0271230293633</v>
+        <v>397.1922932681213</v>
       </c>
       <c r="AB7" t="n">
-        <v>428.2975195107985</v>
+        <v>543.4560185367202</v>
       </c>
       <c r="AC7" t="n">
-        <v>387.4214053680312</v>
+        <v>491.5893388728874</v>
       </c>
       <c r="AD7" t="n">
-        <v>313027.1230293633</v>
+        <v>397192.2932681213</v>
       </c>
       <c r="AE7" t="n">
-        <v>428297.5195107985</v>
+        <v>543456.0185367202</v>
       </c>
       <c r="AF7" t="n">
         <v>1.417627483826609e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.90833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>387421.4053680312</v>
+        <v>491589.3388728874</v>
       </c>
     </row>
   </sheetData>
@@ -13224,28 +13224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>741.351257101661</v>
+        <v>874.0057536738801</v>
       </c>
       <c r="AB2" t="n">
-        <v>1014.349496075675</v>
+        <v>1195.853230589139</v>
       </c>
       <c r="AC2" t="n">
-        <v>917.5414038186713</v>
+        <v>1081.722676652261</v>
       </c>
       <c r="AD2" t="n">
-        <v>741351.2571016609</v>
+        <v>874005.7536738801</v>
       </c>
       <c r="AE2" t="n">
-        <v>1014349.496075675</v>
+        <v>1195853.230589139</v>
       </c>
       <c r="AF2" t="n">
         <v>7.558191373661434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>917541.4038186712</v>
+        <v>1081722.676652262</v>
       </c>
     </row>
     <row r="3">
@@ -13330,28 +13330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>475.3677525118512</v>
+        <v>570.1261339889356</v>
       </c>
       <c r="AB3" t="n">
-        <v>650.419130731845</v>
+        <v>780.0717287135417</v>
       </c>
       <c r="AC3" t="n">
-        <v>588.3440417637803</v>
+        <v>705.622777762668</v>
       </c>
       <c r="AD3" t="n">
-        <v>475367.7525118511</v>
+        <v>570126.1339889356</v>
       </c>
       <c r="AE3" t="n">
-        <v>650419.130731845</v>
+        <v>780071.7287135416</v>
       </c>
       <c r="AF3" t="n">
         <v>1.019018168590541e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.37083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>588344.0417637803</v>
+        <v>705622.777762668</v>
       </c>
     </row>
     <row r="4">
@@ -13436,28 +13436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.5151788063952</v>
+        <v>509.3067146724032</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.1579547619596</v>
+        <v>696.8559160412501</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.0291955706665</v>
+        <v>630.3489654576932</v>
       </c>
       <c r="AD4" t="n">
-        <v>414515.1788063952</v>
+        <v>509306.7146724032</v>
       </c>
       <c r="AE4" t="n">
-        <v>567157.9547619596</v>
+        <v>696855.9160412501</v>
       </c>
       <c r="AF4" t="n">
         <v>1.111782998448544e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.67083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>513029.1955706665</v>
+        <v>630348.9654576932</v>
       </c>
     </row>
     <row r="5">
@@ -13542,28 +13542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.9284893291983</v>
+        <v>480.6858597764255</v>
       </c>
       <c r="AB5" t="n">
-        <v>528.0443850635271</v>
+        <v>657.6955997095697</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.6485700680124</v>
+        <v>594.9260547548591</v>
       </c>
       <c r="AD5" t="n">
-        <v>385928.4893291983</v>
+        <v>480685.8597764255</v>
       </c>
       <c r="AE5" t="n">
-        <v>528044.3850635272</v>
+        <v>657695.5997095697</v>
       </c>
       <c r="AF5" t="n">
         <v>1.158563973333971e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>477648.5700680123</v>
+        <v>594926.0547548592</v>
       </c>
     </row>
     <row r="6">
@@ -13648,28 +13648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.6874066107615</v>
+        <v>460.0305377670715</v>
       </c>
       <c r="AB6" t="n">
-        <v>512.6638397665928</v>
+        <v>629.4340768878772</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.7359224274866</v>
+        <v>569.3617720059727</v>
       </c>
       <c r="AD6" t="n">
-        <v>374687.4066107615</v>
+        <v>460030.5377670715</v>
       </c>
       <c r="AE6" t="n">
-        <v>512663.8397665928</v>
+        <v>629434.0768878772</v>
       </c>
       <c r="AF6" t="n">
         <v>1.185566410381789e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.50833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>463735.9224274866</v>
+        <v>569361.7720059727</v>
       </c>
     </row>
     <row r="7">
@@ -13754,28 +13754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>365.6040827496005</v>
+        <v>450.8457286794252</v>
       </c>
       <c r="AB7" t="n">
-        <v>500.2356353317855</v>
+        <v>616.8670158889806</v>
       </c>
       <c r="AC7" t="n">
-        <v>452.4938483808428</v>
+        <v>557.9940936708299</v>
       </c>
       <c r="AD7" t="n">
-        <v>365604.0827496005</v>
+        <v>450845.7286794253</v>
       </c>
       <c r="AE7" t="n">
-        <v>500235.6353317855</v>
+        <v>616867.0158889806</v>
       </c>
       <c r="AF7" t="n">
         <v>1.206739908066886e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.20416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>452493.8483808428</v>
+        <v>557994.0936708299</v>
       </c>
     </row>
     <row r="8">
@@ -13860,28 +13860,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>358.645879812602</v>
+        <v>434.4732864515095</v>
       </c>
       <c r="AB8" t="n">
-        <v>490.7151150991359</v>
+        <v>594.4655181315726</v>
       </c>
       <c r="AC8" t="n">
-        <v>443.8819532370632</v>
+        <v>537.7305634186895</v>
       </c>
       <c r="AD8" t="n">
-        <v>358645.879812602</v>
+        <v>434473.2864515095</v>
       </c>
       <c r="AE8" t="n">
-        <v>490715.1150991358</v>
+        <v>594465.5181315726</v>
       </c>
       <c r="AF8" t="n">
         <v>1.220390586574455e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.00833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>443881.9532370631</v>
+        <v>537730.5634186895</v>
       </c>
     </row>
     <row r="9">
@@ -13966,28 +13966,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>343.126455918572</v>
+        <v>428.4354216561012</v>
       </c>
       <c r="AB9" t="n">
-        <v>469.4807546586632</v>
+        <v>586.2042451466997</v>
       </c>
       <c r="AC9" t="n">
-        <v>424.6741703544172</v>
+        <v>530.2577347327233</v>
       </c>
       <c r="AD9" t="n">
-        <v>343126.455918572</v>
+        <v>428435.4216561012</v>
       </c>
       <c r="AE9" t="n">
-        <v>469480.7546586632</v>
+        <v>586204.2451466997</v>
       </c>
       <c r="AF9" t="n">
         <v>1.231350985376152e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.85833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>424674.1703544172</v>
+        <v>530257.7347327233</v>
       </c>
     </row>
     <row r="10">
@@ -14072,28 +14072,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>339.1049651008159</v>
+        <v>424.4139308383451</v>
       </c>
       <c r="AB10" t="n">
-        <v>463.9783735061558</v>
+        <v>580.7018639941923</v>
       </c>
       <c r="AC10" t="n">
-        <v>419.6969287364647</v>
+        <v>525.2804931147708</v>
       </c>
       <c r="AD10" t="n">
-        <v>339104.9651008159</v>
+        <v>424413.9308383451</v>
       </c>
       <c r="AE10" t="n">
-        <v>463978.3735061558</v>
+        <v>580701.8639941923</v>
       </c>
       <c r="AF10" t="n">
         <v>1.236781364782448e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.78333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>419696.9287364646</v>
+        <v>525280.4931147709</v>
       </c>
     </row>
     <row r="11">
@@ -14178,28 +14178,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>339.11341652147</v>
+        <v>424.4223822589992</v>
       </c>
       <c r="AB11" t="n">
-        <v>463.9899371127451</v>
+        <v>580.7134276007816</v>
       </c>
       <c r="AC11" t="n">
-        <v>419.7073887286707</v>
+        <v>525.2909531069768</v>
       </c>
       <c r="AD11" t="n">
-        <v>339113.41652147</v>
+        <v>424422.3822589992</v>
       </c>
       <c r="AE11" t="n">
-        <v>463989.9371127451</v>
+        <v>580713.4276007817</v>
       </c>
       <c r="AF11" t="n">
         <v>1.238525064591809e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.7625</v>
       </c>
       <c r="AH11" t="n">
-        <v>419707.3887286707</v>
+        <v>525290.9531069768</v>
       </c>
     </row>
   </sheetData>
@@ -14475,28 +14475,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.8420479534461</v>
+        <v>527.605723056395</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.6558768351539</v>
+        <v>721.8934266075013</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.0480177126653</v>
+        <v>652.9969311558683</v>
       </c>
       <c r="AD2" t="n">
-        <v>425842.047953446</v>
+        <v>527605.7230563951</v>
       </c>
       <c r="AE2" t="n">
-        <v>582655.8768351539</v>
+        <v>721893.4266075012</v>
       </c>
       <c r="AF2" t="n">
         <v>1.276121126923633e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>527048.0177126654</v>
+        <v>652996.9311558683</v>
       </c>
     </row>
     <row r="3">
@@ -14581,28 +14581,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.1007334480044</v>
+        <v>417.2946023608945</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.1313629876599</v>
+        <v>570.9608846887389</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.5033872920143</v>
+        <v>516.4691792026796</v>
       </c>
       <c r="AD3" t="n">
-        <v>334100.7334480044</v>
+        <v>417294.6023608946</v>
       </c>
       <c r="AE3" t="n">
-        <v>457131.3629876599</v>
+        <v>570960.884688739</v>
       </c>
       <c r="AF3" t="n">
         <v>1.508388745677482e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>413503.3872920143</v>
+        <v>516469.1792026795</v>
       </c>
     </row>
     <row r="4">
@@ -14687,28 +14687,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.0309025830038</v>
+        <v>388.1906060771131</v>
       </c>
       <c r="AB4" t="n">
-        <v>417.3567379277404</v>
+        <v>531.1395129955717</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.5247966237768</v>
+        <v>480.4483033342621</v>
       </c>
       <c r="AD4" t="n">
-        <v>305030.9025830037</v>
+        <v>388190.6060771131</v>
       </c>
       <c r="AE4" t="n">
-        <v>417356.7379277404</v>
+        <v>531139.5129955717</v>
       </c>
       <c r="AF4" t="n">
         <v>1.587656247907519e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>377524.7966237768</v>
+        <v>480448.303334262</v>
       </c>
     </row>
     <row r="5">
@@ -14793,28 +14793,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.8365351882905</v>
+        <v>385.9962386823998</v>
       </c>
       <c r="AB5" t="n">
-        <v>414.3543076496368</v>
+        <v>528.137082717468</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.8089140774779</v>
+        <v>477.7324207879632</v>
       </c>
       <c r="AD5" t="n">
-        <v>302836.5351882905</v>
+        <v>385996.2386823999</v>
       </c>
       <c r="AE5" t="n">
-        <v>414354.3076496368</v>
+        <v>528137.082717468</v>
       </c>
       <c r="AF5" t="n">
         <v>1.597935325503435e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.18333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>374808.9140774779</v>
+        <v>477732.4207879632</v>
       </c>
     </row>
   </sheetData>
@@ -15090,28 +15090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1501.898749720129</v>
+        <v>1695.975838470179</v>
       </c>
       <c r="AB2" t="n">
-        <v>2054.964128463585</v>
+        <v>2320.508963368278</v>
       </c>
       <c r="AC2" t="n">
-        <v>1858.841236203289</v>
+        <v>2099.042844759194</v>
       </c>
       <c r="AD2" t="n">
-        <v>1501898.749720128</v>
+        <v>1695975.838470179</v>
       </c>
       <c r="AE2" t="n">
-        <v>2054964.128463585</v>
+        <v>2320508.963368278</v>
       </c>
       <c r="AF2" t="n">
         <v>4.266193224501032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.28333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1858841.236203289</v>
+        <v>2099042.844759194</v>
       </c>
     </row>
     <row r="3">
@@ -15196,28 +15196,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.5343580096965</v>
+        <v>800.0415023956177</v>
       </c>
       <c r="AB3" t="n">
-        <v>935.241864036481</v>
+        <v>1094.65207891775</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.9836931530389</v>
+        <v>990.1800208596817</v>
       </c>
       <c r="AD3" t="n">
-        <v>683534.3580096965</v>
+        <v>800041.5023956178</v>
       </c>
       <c r="AE3" t="n">
-        <v>935241.864036481</v>
+        <v>1094652.07891775</v>
       </c>
       <c r="AF3" t="n">
         <v>7.10616591783579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>845983.6931530389</v>
+        <v>990180.0208596817</v>
       </c>
     </row>
     <row r="4">
@@ -15302,28 +15302,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>561.6134976117975</v>
+        <v>668.377547880111</v>
       </c>
       <c r="AB4" t="n">
-        <v>768.4243640713294</v>
+        <v>914.5036477459117</v>
       </c>
       <c r="AC4" t="n">
-        <v>695.0870212547295</v>
+        <v>827.224703118972</v>
       </c>
       <c r="AD4" t="n">
-        <v>561613.4976117974</v>
+        <v>668377.547880111</v>
       </c>
       <c r="AE4" t="n">
-        <v>768424.3640713294</v>
+        <v>914503.6477459117</v>
       </c>
       <c r="AF4" t="n">
         <v>8.126963353848199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.62083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>695087.0212547295</v>
+        <v>827224.703118972</v>
       </c>
     </row>
     <row r="5">
@@ -15408,28 +15408,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>515.3859060621395</v>
+        <v>612.3737078239219</v>
       </c>
       <c r="AB5" t="n">
-        <v>705.1737338956831</v>
+        <v>837.8767230659849</v>
       </c>
       <c r="AC5" t="n">
-        <v>637.8729424502297</v>
+        <v>757.9109445839331</v>
       </c>
       <c r="AD5" t="n">
-        <v>515385.9060621395</v>
+        <v>612373.7078239219</v>
       </c>
       <c r="AE5" t="n">
-        <v>705173.7338956831</v>
+        <v>837876.7230659849</v>
       </c>
       <c r="AF5" t="n">
         <v>8.647417208142942e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.37916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>637872.9424502298</v>
+        <v>757910.9445839331</v>
       </c>
     </row>
     <row r="6">
@@ -15514,28 +15514,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>483.2419906837559</v>
+        <v>580.2971122532427</v>
       </c>
       <c r="AB6" t="n">
-        <v>661.1930107855159</v>
+        <v>793.9881098866592</v>
       </c>
       <c r="AC6" t="n">
-        <v>598.0896778263644</v>
+        <v>718.2109990483867</v>
       </c>
       <c r="AD6" t="n">
-        <v>483241.990683756</v>
+        <v>580297.1122532428</v>
       </c>
       <c r="AE6" t="n">
-        <v>661193.0107855159</v>
+        <v>793988.1098866592</v>
       </c>
       <c r="AF6" t="n">
         <v>9.002162416402574e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.61666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>598089.6778263644</v>
+        <v>718210.9990483867</v>
       </c>
     </row>
     <row r="7">
@@ -15620,28 +15620,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>470.4428200169183</v>
+        <v>557.7558584986548</v>
       </c>
       <c r="AB7" t="n">
-        <v>643.6806208195907</v>
+        <v>763.1461720497012</v>
       </c>
       <c r="AC7" t="n">
-        <v>582.2486457799934</v>
+        <v>690.3125724716564</v>
       </c>
       <c r="AD7" t="n">
-        <v>470442.8200169184</v>
+        <v>557755.8584986548</v>
       </c>
       <c r="AE7" t="n">
-        <v>643680.6208195906</v>
+        <v>763146.1720497012</v>
       </c>
       <c r="AF7" t="n">
         <v>9.216940127525751e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.18333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>582248.6457799934</v>
+        <v>690312.5724716564</v>
       </c>
     </row>
     <row r="8">
@@ -15726,28 +15726,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>449.9442440027363</v>
+        <v>546.9652001534423</v>
       </c>
       <c r="AB8" t="n">
-        <v>615.6335647836376</v>
+        <v>748.3819172515331</v>
       </c>
       <c r="AC8" t="n">
-        <v>556.8783614078213</v>
+        <v>676.957397429664</v>
       </c>
       <c r="AD8" t="n">
-        <v>449944.2440027363</v>
+        <v>546965.2001534423</v>
       </c>
       <c r="AE8" t="n">
-        <v>615633.5647836375</v>
+        <v>748381.9172515331</v>
       </c>
       <c r="AF8" t="n">
         <v>9.39793258071944e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>556878.3614078213</v>
+        <v>676957.3974296639</v>
       </c>
     </row>
     <row r="9">
@@ -15832,28 +15832,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>444.2276170608951</v>
+        <v>531.6079753503359</v>
       </c>
       <c r="AB9" t="n">
-        <v>607.8118236020292</v>
+        <v>727.3694847629813</v>
       </c>
       <c r="AC9" t="n">
-        <v>549.803116226703</v>
+        <v>657.9503620066851</v>
       </c>
       <c r="AD9" t="n">
-        <v>444227.6170608951</v>
+        <v>531607.9753503359</v>
       </c>
       <c r="AE9" t="n">
-        <v>607811.8236020292</v>
+        <v>727369.4847629813</v>
       </c>
       <c r="AF9" t="n">
         <v>9.490842040025536e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.65833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>549803.1162267029</v>
+        <v>657950.362006685</v>
       </c>
     </row>
     <row r="10">
@@ -15938,28 +15938,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>437.2883216980649</v>
+        <v>524.5671947610206</v>
       </c>
       <c r="AB10" t="n">
-        <v>598.3171735464999</v>
+        <v>717.7359781433626</v>
       </c>
       <c r="AC10" t="n">
-        <v>541.2146222466483</v>
+        <v>649.2362637381314</v>
       </c>
       <c r="AD10" t="n">
-        <v>437288.3216980649</v>
+        <v>524567.1947610206</v>
       </c>
       <c r="AE10" t="n">
-        <v>598317.1735464999</v>
+        <v>717735.9781433626</v>
       </c>
       <c r="AF10" t="n">
         <v>9.609090442778745e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.44166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>541214.6222466483</v>
+        <v>649236.2637381314</v>
       </c>
     </row>
     <row r="11">
@@ -16044,28 +16044,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>432.3540867435894</v>
+        <v>519.6329598065452</v>
       </c>
       <c r="AB11" t="n">
-        <v>591.5659355987035</v>
+        <v>710.9847401955662</v>
       </c>
       <c r="AC11" t="n">
-        <v>535.1077129731676</v>
+        <v>643.1293544646509</v>
       </c>
       <c r="AD11" t="n">
-        <v>432354.0867435894</v>
+        <v>519632.9598065452</v>
       </c>
       <c r="AE11" t="n">
-        <v>591565.9355987035</v>
+        <v>710984.7401955662</v>
       </c>
       <c r="AF11" t="n">
         <v>9.680280807701597e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.3125</v>
       </c>
       <c r="AH11" t="n">
-        <v>535107.7129731677</v>
+        <v>643129.3544646509</v>
       </c>
     </row>
     <row r="12">
@@ -16150,28 +16150,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>428.3678128228777</v>
+        <v>515.6466858858333</v>
       </c>
       <c r="AB12" t="n">
-        <v>586.1117397583921</v>
+        <v>705.5305443552548</v>
       </c>
       <c r="AC12" t="n">
-        <v>530.1740579288437</v>
+        <v>638.1956994203267</v>
       </c>
       <c r="AD12" t="n">
-        <v>428367.8128228777</v>
+        <v>515646.6858858333</v>
       </c>
       <c r="AE12" t="n">
-        <v>586111.7397583921</v>
+        <v>705530.5443552549</v>
       </c>
       <c r="AF12" t="n">
         <v>9.736991776368953e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.2125</v>
       </c>
       <c r="AH12" t="n">
-        <v>530174.0579288437</v>
+        <v>638195.6994203267</v>
       </c>
     </row>
     <row r="13">
@@ -16256,28 +16256,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>424.2901703932263</v>
+        <v>501.9284455949168</v>
       </c>
       <c r="AB13" t="n">
-        <v>580.5325294932552</v>
+        <v>686.7606427831745</v>
       </c>
       <c r="AC13" t="n">
-        <v>525.1273196609407</v>
+        <v>621.2171709105635</v>
       </c>
       <c r="AD13" t="n">
-        <v>424290.1703932263</v>
+        <v>501928.4455949168</v>
       </c>
       <c r="AE13" t="n">
-        <v>580532.5294932552</v>
+        <v>686760.6427831745</v>
       </c>
       <c r="AF13" t="n">
         <v>9.793702745036309e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.1125</v>
       </c>
       <c r="AH13" t="n">
-        <v>525127.3196609407</v>
+        <v>621217.1709105634</v>
       </c>
     </row>
     <row r="14">
@@ -16362,28 +16362,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>421.2451029415944</v>
+        <v>498.883378143285</v>
       </c>
       <c r="AB14" t="n">
-        <v>576.3661338670377</v>
+        <v>682.5942471569571</v>
       </c>
       <c r="AC14" t="n">
-        <v>521.3585589857164</v>
+        <v>617.4484102353392</v>
       </c>
       <c r="AD14" t="n">
-        <v>421245.1029415944</v>
+        <v>498883.378143285</v>
       </c>
       <c r="AE14" t="n">
-        <v>576366.1338670377</v>
+        <v>682594.247156957</v>
       </c>
       <c r="AF14" t="n">
         <v>9.826281386611173e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.05416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>521358.5589857164</v>
+        <v>617448.4102353392</v>
       </c>
     </row>
     <row r="15">
@@ -16468,28 +16468,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>407.8673430072928</v>
+        <v>495.2135358779529</v>
       </c>
       <c r="AB15" t="n">
-        <v>558.0620925398111</v>
+        <v>677.5730070675155</v>
       </c>
       <c r="AC15" t="n">
-        <v>504.801429672877</v>
+        <v>612.9063902526791</v>
       </c>
       <c r="AD15" t="n">
-        <v>407867.3430072928</v>
+        <v>495213.5358779529</v>
       </c>
       <c r="AE15" t="n">
-        <v>558062.0925398112</v>
+        <v>677573.0070675155</v>
       </c>
       <c r="AF15" t="n">
         <v>9.871730602635366e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.975</v>
       </c>
       <c r="AH15" t="n">
-        <v>504801.429672877</v>
+        <v>612906.3902526791</v>
       </c>
     </row>
     <row r="16">
@@ -16574,28 +16574,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>405.122641431721</v>
+        <v>492.4688343023811</v>
       </c>
       <c r="AB16" t="n">
-        <v>554.3066707564262</v>
+        <v>673.8175852841304</v>
       </c>
       <c r="AC16" t="n">
-        <v>501.4044200737308</v>
+        <v>609.509380653533</v>
       </c>
       <c r="AD16" t="n">
-        <v>405122.641431721</v>
+        <v>492468.8343023811</v>
       </c>
       <c r="AE16" t="n">
-        <v>554306.6707564262</v>
+        <v>673817.5852841304</v>
       </c>
       <c r="AF16" t="n">
         <v>9.910342325983353e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.90833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>501404.4200737308</v>
+        <v>609509.3806535329</v>
       </c>
     </row>
     <row r="17">
@@ -16680,28 +16680,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>401.5908356970381</v>
+        <v>488.9370285676982</v>
       </c>
       <c r="AB17" t="n">
-        <v>549.4742983379608</v>
+        <v>668.9852128656651</v>
       </c>
       <c r="AC17" t="n">
-        <v>497.0332424966064</v>
+        <v>605.1382030764084</v>
       </c>
       <c r="AD17" t="n">
-        <v>401590.8356970382</v>
+        <v>488937.0285676983</v>
       </c>
       <c r="AE17" t="n">
-        <v>549474.2983379608</v>
+        <v>668985.2128656651</v>
       </c>
       <c r="AF17" t="n">
         <v>9.95136728204059e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.84166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>497033.2424966064</v>
+        <v>605138.2030764085</v>
       </c>
     </row>
     <row r="18">
@@ -16786,28 +16786,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>399.4425770410328</v>
+        <v>486.788769911693</v>
       </c>
       <c r="AB18" t="n">
-        <v>546.5349560703313</v>
+        <v>666.0458705980354</v>
       </c>
       <c r="AC18" t="n">
-        <v>494.3744269296066</v>
+        <v>602.4793875094088</v>
       </c>
       <c r="AD18" t="n">
-        <v>399442.5770410328</v>
+        <v>486788.7699116929</v>
       </c>
       <c r="AE18" t="n">
-        <v>546534.9560703313</v>
+        <v>666045.8705980354</v>
       </c>
       <c r="AF18" t="n">
         <v>9.967053294650709e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.8125</v>
       </c>
       <c r="AH18" t="n">
-        <v>494374.4269296066</v>
+        <v>602479.3875094088</v>
       </c>
     </row>
     <row r="19">
@@ -16892,28 +16892,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>396.4537005537616</v>
+        <v>483.7998934244217</v>
       </c>
       <c r="AB19" t="n">
-        <v>542.4454434005223</v>
+        <v>661.9563579282266</v>
       </c>
       <c r="AC19" t="n">
-        <v>490.6752116093372</v>
+        <v>598.7801721891393</v>
       </c>
       <c r="AD19" t="n">
-        <v>396453.7005537616</v>
+        <v>483799.8934244217</v>
       </c>
       <c r="AE19" t="n">
-        <v>542445.4434005223</v>
+        <v>661956.3579282266</v>
       </c>
       <c r="AF19" t="n">
         <v>9.990381210840119e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.775</v>
       </c>
       <c r="AH19" t="n">
-        <v>490675.2116093372</v>
+        <v>598780.1721891393</v>
       </c>
     </row>
     <row r="20">
@@ -16998,28 +16998,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>393.6025855033722</v>
+        <v>480.9487783740323</v>
       </c>
       <c r="AB20" t="n">
-        <v>538.5444220062608</v>
+        <v>658.055336533965</v>
       </c>
       <c r="AC20" t="n">
-        <v>487.1464982218261</v>
+        <v>595.2514588016281</v>
       </c>
       <c r="AD20" t="n">
-        <v>393602.5855033722</v>
+        <v>480948.7783740323</v>
       </c>
       <c r="AE20" t="n">
-        <v>538544.4220062608</v>
+        <v>658055.3365339651</v>
       </c>
       <c r="AF20" t="n">
         <v>1.000807825070795e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.74583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>487146.4982218261</v>
+        <v>595251.4588016281</v>
       </c>
     </row>
     <row r="21">
@@ -17104,28 +17104,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>392.32796384024</v>
+        <v>479.6741567109001</v>
       </c>
       <c r="AB21" t="n">
-        <v>536.8004284144242</v>
+        <v>656.3113429421285</v>
       </c>
       <c r="AC21" t="n">
-        <v>485.568948930684</v>
+        <v>593.6739095104861</v>
       </c>
       <c r="AD21" t="n">
-        <v>392327.96384024</v>
+        <v>479674.1567109001</v>
       </c>
       <c r="AE21" t="n">
-        <v>536800.4284144242</v>
+        <v>656311.3429421284</v>
       </c>
       <c r="AF21" t="n">
         <v>1.002376426331806e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.71666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>485568.948930684</v>
+        <v>593673.9095104861</v>
       </c>
     </row>
     <row r="22">
@@ -17210,28 +17210,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>390.7590246433057</v>
+        <v>478.1052175139659</v>
       </c>
       <c r="AB22" t="n">
-        <v>534.6537365884666</v>
+        <v>654.1646511161707</v>
       </c>
       <c r="AC22" t="n">
-        <v>483.6271343596948</v>
+        <v>591.7320949394968</v>
       </c>
       <c r="AD22" t="n">
-        <v>390759.0246433057</v>
+        <v>478105.2175139659</v>
       </c>
       <c r="AE22" t="n">
-        <v>534653.7365884666</v>
+        <v>654164.6511161707</v>
       </c>
       <c r="AF22" t="n">
         <v>1.004548335770131e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>483627.1343596948</v>
+        <v>591732.0949394968</v>
       </c>
     </row>
     <row r="23">
@@ -17316,28 +17316,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>391.7406475600206</v>
+        <v>479.0868404306807</v>
       </c>
       <c r="AB23" t="n">
-        <v>535.9968363692625</v>
+        <v>655.5077508969667</v>
       </c>
       <c r="AC23" t="n">
-        <v>484.842050582464</v>
+        <v>592.9470111622661</v>
       </c>
       <c r="AD23" t="n">
-        <v>391740.6475600206</v>
+        <v>479086.8404306807</v>
       </c>
       <c r="AE23" t="n">
-        <v>535996.8363692625</v>
+        <v>655507.7508969668</v>
       </c>
       <c r="AF23" t="n">
         <v>1.004508115224977e-05</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>484842.050582464</v>
+        <v>592947.0111622661</v>
       </c>
     </row>
   </sheetData>
@@ -17613,28 +17613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.8394753083559</v>
+        <v>463.6673391319364</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.7671745167796</v>
+        <v>634.4101089596379</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.2111494401116</v>
+        <v>573.8628985607095</v>
       </c>
       <c r="AD2" t="n">
-        <v>371839.4753083559</v>
+        <v>463667.3391319364</v>
       </c>
       <c r="AE2" t="n">
-        <v>508767.1745167796</v>
+        <v>634410.1089596379</v>
       </c>
       <c r="AF2" t="n">
         <v>1.472590554583865e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>460211.1494401116</v>
+        <v>573862.8985607094</v>
       </c>
     </row>
     <row r="3">
@@ -17719,28 +17719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.9706260733421</v>
+        <v>378.6762913414987</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.960067896032</v>
+        <v>518.1216078323619</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.3112473810589</v>
+        <v>468.6728087690842</v>
       </c>
       <c r="AD3" t="n">
-        <v>295970.6260733422</v>
+        <v>378676.2913414987</v>
       </c>
       <c r="AE3" t="n">
-        <v>404960.067896032</v>
+        <v>518121.6078323618</v>
       </c>
       <c r="AF3" t="n">
         <v>1.697102034974277e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="AH3" t="n">
-        <v>366311.2473810589</v>
+        <v>468672.8087690842</v>
       </c>
     </row>
     <row r="4">
@@ -17825,28 +17825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.9971971850554</v>
+        <v>373.6013772267266</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.1552030788807</v>
+        <v>511.1778864511212</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.1558293113688</v>
+        <v>462.3917864108951</v>
       </c>
       <c r="AD4" t="n">
-        <v>290997.1971850554</v>
+        <v>373601.3772267266</v>
       </c>
       <c r="AE4" t="n">
-        <v>398155.2030788807</v>
+        <v>511177.8864511212</v>
       </c>
       <c r="AF4" t="n">
         <v>1.723994386350521e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.425</v>
       </c>
       <c r="AH4" t="n">
-        <v>360155.8293113688</v>
+        <v>462391.7864108951</v>
       </c>
     </row>
   </sheetData>
@@ -18122,28 +18122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>994.2434474908747</v>
+        <v>1157.178660974395</v>
       </c>
       <c r="AB2" t="n">
-        <v>1360.367747782228</v>
+        <v>1583.302895064682</v>
       </c>
       <c r="AC2" t="n">
-        <v>1230.536159222017</v>
+        <v>1432.194688939278</v>
       </c>
       <c r="AD2" t="n">
-        <v>994243.4474908747</v>
+        <v>1157178.660974395</v>
       </c>
       <c r="AE2" t="n">
-        <v>1360367.747782229</v>
+        <v>1583302.895064682</v>
       </c>
       <c r="AF2" t="n">
         <v>5.875954034211037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.77916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1230536.159222018</v>
+        <v>1432194.688939278</v>
       </c>
     </row>
     <row r="3">
@@ -18228,28 +18228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.2142303210272</v>
+        <v>662.6871119405508</v>
       </c>
       <c r="AB3" t="n">
-        <v>762.4050924821222</v>
+        <v>906.7177422490895</v>
       </c>
       <c r="AC3" t="n">
-        <v>689.6422204978957</v>
+        <v>820.1818735151796</v>
       </c>
       <c r="AD3" t="n">
-        <v>557214.2303210272</v>
+        <v>662687.1119405509</v>
       </c>
       <c r="AE3" t="n">
-        <v>762405.0924821222</v>
+        <v>906717.7422490895</v>
       </c>
       <c r="AF3" t="n">
         <v>8.619649450078628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>689642.2204978956</v>
+        <v>820181.8735151796</v>
       </c>
     </row>
     <row r="4">
@@ -18334,28 +18334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.1960434994488</v>
+        <v>573.9789961088941</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.2889232364683</v>
+        <v>785.3433846423492</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.8445067030503</v>
+        <v>710.3913142484458</v>
       </c>
       <c r="AD4" t="n">
-        <v>478196.0434994488</v>
+        <v>573978.9961088941</v>
       </c>
       <c r="AE4" t="n">
-        <v>654288.9232364683</v>
+        <v>785343.3846423492</v>
       </c>
       <c r="AF4" t="n">
         <v>9.585903503755616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>591844.5067030503</v>
+        <v>710391.3142484458</v>
       </c>
     </row>
     <row r="5">
@@ -18440,28 +18440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>442.7363808807363</v>
+        <v>538.5866532978861</v>
       </c>
       <c r="AB5" t="n">
-        <v>605.7714484716388</v>
+        <v>736.9180198083614</v>
       </c>
       <c r="AC5" t="n">
-        <v>547.9574716350726</v>
+        <v>666.587598268787</v>
       </c>
       <c r="AD5" t="n">
-        <v>442736.3808807363</v>
+        <v>538586.653297886</v>
       </c>
       <c r="AE5" t="n">
-        <v>605771.4484716388</v>
+        <v>736918.0198083613</v>
       </c>
       <c r="AF5" t="n">
         <v>1.008471647302393e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.51666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>547957.4716350726</v>
+        <v>666587.598268787</v>
       </c>
     </row>
     <row r="6">
@@ -18546,28 +18546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.1053024902694</v>
+        <v>513.9214094886383</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.0701203713151</v>
+        <v>703.1699450747898</v>
       </c>
       <c r="AC6" t="n">
-        <v>517.4725509885326</v>
+        <v>636.0603924220674</v>
       </c>
       <c r="AD6" t="n">
-        <v>418105.3024902694</v>
+        <v>513921.4094886383</v>
       </c>
       <c r="AE6" t="n">
-        <v>572070.120371315</v>
+        <v>703169.9450747898</v>
       </c>
       <c r="AF6" t="n">
         <v>1.039171277486472e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.97083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>517472.5509885326</v>
+        <v>636060.3924220674</v>
       </c>
     </row>
     <row r="7">
@@ -18652,28 +18652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>408.2909823241085</v>
+        <v>494.586976376446</v>
       </c>
       <c r="AB7" t="n">
-        <v>558.641734542726</v>
+        <v>676.7157207156993</v>
       </c>
       <c r="AC7" t="n">
-        <v>505.3257514565663</v>
+        <v>612.1309221070713</v>
       </c>
       <c r="AD7" t="n">
-        <v>408290.9823241085</v>
+        <v>494586.976376446</v>
       </c>
       <c r="AE7" t="n">
-        <v>558641.734542726</v>
+        <v>676715.7207156993</v>
       </c>
       <c r="AF7" t="n">
         <v>1.058801114012934e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.6375</v>
       </c>
       <c r="AH7" t="n">
-        <v>505325.7514565663</v>
+        <v>612130.9221070714</v>
       </c>
     </row>
     <row r="8">
@@ -18758,28 +18758,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>400.7639649382427</v>
+        <v>486.9584737640949</v>
       </c>
       <c r="AB8" t="n">
-        <v>548.3429372868135</v>
+        <v>666.2780668956976</v>
       </c>
       <c r="AC8" t="n">
-        <v>496.0098569563054</v>
+        <v>602.6894233183116</v>
       </c>
       <c r="AD8" t="n">
-        <v>400763.9649382427</v>
+        <v>486958.4737640949</v>
       </c>
       <c r="AE8" t="n">
-        <v>548342.9372868135</v>
+        <v>666278.0668956976</v>
       </c>
       <c r="AF8" t="n">
         <v>1.073635533853708e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.39166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>496009.8569563054</v>
+        <v>602689.4233183116</v>
       </c>
     </row>
     <row r="9">
@@ -18864,28 +18864,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>394.2306734875489</v>
+        <v>480.4251823134011</v>
       </c>
       <c r="AB9" t="n">
-        <v>539.4037996954977</v>
+        <v>657.3389293043816</v>
       </c>
       <c r="AC9" t="n">
-        <v>487.9238581105462</v>
+        <v>594.6034244725525</v>
       </c>
       <c r="AD9" t="n">
-        <v>394230.6734875489</v>
+        <v>480425.1823134011</v>
       </c>
       <c r="AE9" t="n">
-        <v>539403.7996954977</v>
+        <v>657338.9293043816</v>
       </c>
       <c r="AF9" t="n">
         <v>1.085780934992226e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="AH9" t="n">
-        <v>487923.8581105463</v>
+        <v>594603.4244725525</v>
       </c>
     </row>
     <row r="10">
@@ -18970,28 +18970,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>388.4895169982948</v>
+        <v>465.1639128781155</v>
       </c>
       <c r="AB10" t="n">
-        <v>531.5484961049516</v>
+        <v>636.4577871833342</v>
       </c>
       <c r="AC10" t="n">
-        <v>480.8182536696941</v>
+        <v>575.7151492486705</v>
       </c>
       <c r="AD10" t="n">
-        <v>388489.5169982948</v>
+        <v>465163.9128781155</v>
       </c>
       <c r="AE10" t="n">
-        <v>531548.4961049516</v>
+        <v>636457.7871833341</v>
       </c>
       <c r="AF10" t="n">
         <v>1.095416585341974e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.04583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>480818.2536696941</v>
+        <v>575715.1492486706</v>
       </c>
     </row>
     <row r="11">
@@ -19076,28 +19076,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>374.172881180351</v>
+        <v>460.4347098139077</v>
       </c>
       <c r="AB11" t="n">
-        <v>511.9598433734452</v>
+        <v>629.9870829131705</v>
       </c>
       <c r="AC11" t="n">
-        <v>463.0991144620358</v>
+        <v>569.8619999123609</v>
       </c>
       <c r="AD11" t="n">
-        <v>374172.881180351</v>
+        <v>460434.7098139077</v>
       </c>
       <c r="AE11" t="n">
-        <v>511959.8433734452</v>
+        <v>629987.0829131706</v>
       </c>
       <c r="AF11" t="n">
         <v>1.101780596270644e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.95</v>
       </c>
       <c r="AH11" t="n">
-        <v>463099.1144620358</v>
+        <v>569861.9999123609</v>
       </c>
     </row>
     <row r="12">
@@ -19182,28 +19182,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>370.162140041858</v>
+        <v>456.4239686754147</v>
       </c>
       <c r="AB12" t="n">
-        <v>506.4721704063479</v>
+        <v>624.4994099460733</v>
       </c>
       <c r="AC12" t="n">
-        <v>458.1351773009209</v>
+        <v>564.8980627512461</v>
       </c>
       <c r="AD12" t="n">
-        <v>370162.140041858</v>
+        <v>456423.9686754147</v>
       </c>
       <c r="AE12" t="n">
-        <v>506472.1704063478</v>
+        <v>624499.4099460733</v>
       </c>
       <c r="AF12" t="n">
         <v>1.107293084610267e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.8625</v>
       </c>
       <c r="AH12" t="n">
-        <v>458135.1773009209</v>
+        <v>564898.0627512462</v>
       </c>
     </row>
     <row r="13">
@@ -19288,28 +19288,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>365.6081456387634</v>
+        <v>451.8699742723201</v>
       </c>
       <c r="AB13" t="n">
-        <v>500.2411943559802</v>
+        <v>618.2684338957056</v>
       </c>
       <c r="AC13" t="n">
-        <v>452.4988768595705</v>
+        <v>559.2617623098956</v>
       </c>
       <c r="AD13" t="n">
-        <v>365608.1456387634</v>
+        <v>451869.97427232</v>
       </c>
       <c r="AE13" t="n">
-        <v>500241.1943559801</v>
+        <v>618268.4338957056</v>
       </c>
       <c r="AF13" t="n">
         <v>1.113657095538937e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.76666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>452498.8768595705</v>
+        <v>559261.7623098956</v>
       </c>
     </row>
     <row r="14">
@@ -19394,28 +19394,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>361.8318919679467</v>
+        <v>448.0937206015033</v>
       </c>
       <c r="AB14" t="n">
-        <v>495.0743574870145</v>
+        <v>613.10159702674</v>
       </c>
       <c r="AC14" t="n">
-        <v>447.8251556496779</v>
+        <v>554.588041100003</v>
       </c>
       <c r="AD14" t="n">
-        <v>361831.8919679467</v>
+        <v>448093.7206015033</v>
       </c>
       <c r="AE14" t="n">
-        <v>495074.3574870145</v>
+        <v>613101.59702674</v>
       </c>
       <c r="AF14" t="n">
         <v>1.118273244311142e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="AH14" t="n">
-        <v>447825.1556496779</v>
+        <v>554588.0411000031</v>
       </c>
     </row>
     <row r="15">
@@ -19500,28 +19500,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>362.2719430954644</v>
+        <v>448.5337717290211</v>
       </c>
       <c r="AB15" t="n">
-        <v>495.6764548533699</v>
+        <v>613.7036943930954</v>
       </c>
       <c r="AC15" t="n">
-        <v>448.3697896884373</v>
+        <v>555.1326751387624</v>
       </c>
       <c r="AD15" t="n">
-        <v>362271.9430954644</v>
+        <v>448533.771729021</v>
       </c>
       <c r="AE15" t="n">
-        <v>495676.4548533699</v>
+        <v>613703.6943930953</v>
       </c>
       <c r="AF15" t="n">
         <v>1.116928734960014e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.71666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>448369.7896884372</v>
+        <v>555132.6751387623</v>
       </c>
     </row>
     <row r="16">
@@ -19606,28 +19606,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>363.1302667656433</v>
+        <v>449.3920953991999</v>
       </c>
       <c r="AB16" t="n">
-        <v>496.8508511654764</v>
+        <v>614.8780907052019</v>
       </c>
       <c r="AC16" t="n">
-        <v>449.4321032647919</v>
+        <v>556.194988715117</v>
       </c>
       <c r="AD16" t="n">
-        <v>363130.2667656433</v>
+        <v>449392.0953991999</v>
       </c>
       <c r="AE16" t="n">
-        <v>496850.8511654764</v>
+        <v>614878.0907052018</v>
       </c>
       <c r="AF16" t="n">
         <v>1.116794284024901e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.72083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>449432.1032647919</v>
+        <v>556194.988715117</v>
       </c>
     </row>
   </sheetData>
@@ -19903,28 +19903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1221.439626616715</v>
+        <v>1395.057769191969</v>
       </c>
       <c r="AB2" t="n">
-        <v>1671.227583250225</v>
+        <v>1908.779585413558</v>
       </c>
       <c r="AC2" t="n">
-        <v>1511.727968287468</v>
+        <v>1726.608340770661</v>
       </c>
       <c r="AD2" t="n">
-        <v>1221439.626616715</v>
+        <v>1395057.769191969</v>
       </c>
       <c r="AE2" t="n">
-        <v>1671227.583250225</v>
+        <v>1908779.585413558</v>
       </c>
       <c r="AF2" t="n">
         <v>5.003209536501203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1511727.968287468</v>
+        <v>1726608.340770661</v>
       </c>
     </row>
     <row r="3">
@@ -20009,28 +20009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>617.9250394859621</v>
+        <v>733.7039592683406</v>
       </c>
       <c r="AB3" t="n">
-        <v>845.4722999534565</v>
+        <v>1003.886125805157</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.7816102737235</v>
+        <v>908.0766429213386</v>
       </c>
       <c r="AD3" t="n">
-        <v>617925.0394859621</v>
+        <v>733703.9592683406</v>
       </c>
       <c r="AE3" t="n">
-        <v>845472.2999534565</v>
+        <v>1003886.125805157</v>
       </c>
       <c r="AF3" t="n">
         <v>7.807917342961248e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>764781.6102737235</v>
+        <v>908076.6429213386</v>
       </c>
     </row>
     <row r="4">
@@ -20115,28 +20115,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>523.566666918874</v>
+        <v>620.0102514454691</v>
       </c>
       <c r="AB4" t="n">
-        <v>716.3670118095645</v>
+        <v>848.3253789495129</v>
       </c>
       <c r="AC4" t="n">
-        <v>647.9979496298747</v>
+        <v>767.362395414718</v>
       </c>
       <c r="AD4" t="n">
-        <v>523566.6669188741</v>
+        <v>620010.2514454691</v>
       </c>
       <c r="AE4" t="n">
-        <v>716367.0118095644</v>
+        <v>848325.378949513</v>
       </c>
       <c r="AF4" t="n">
         <v>8.805428807159256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.01666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>647997.9496298747</v>
+        <v>767362.395414718</v>
       </c>
     </row>
     <row r="5">
@@ -20221,28 +20221,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.7140817109758</v>
+        <v>570.1908206264945</v>
       </c>
       <c r="AB5" t="n">
-        <v>648.1565053872806</v>
+        <v>780.1602358248228</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.2973582064866</v>
+        <v>705.7028378794689</v>
       </c>
       <c r="AD5" t="n">
-        <v>473714.0817109759</v>
+        <v>570190.8206264946</v>
       </c>
       <c r="AE5" t="n">
-        <v>648156.5053872806</v>
+        <v>780160.2358248228</v>
       </c>
       <c r="AF5" t="n">
         <v>9.310530032033055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.93333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>586297.3582064866</v>
+        <v>705702.8378794689</v>
       </c>
     </row>
     <row r="6">
@@ -20327,28 +20327,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>455.6355349061402</v>
+        <v>542.4280289993053</v>
       </c>
       <c r="AB6" t="n">
-        <v>623.4206400797088</v>
+        <v>742.1739595125784</v>
       </c>
       <c r="AC6" t="n">
-        <v>563.9222491668644</v>
+        <v>671.3419184643917</v>
       </c>
       <c r="AD6" t="n">
-        <v>455635.5349061402</v>
+        <v>542428.0289993053</v>
       </c>
       <c r="AE6" t="n">
-        <v>623420.6400797089</v>
+        <v>742173.9595125784</v>
       </c>
       <c r="AF6" t="n">
         <v>9.638380492064208e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.2875</v>
       </c>
       <c r="AH6" t="n">
-        <v>563922.2491668644</v>
+        <v>671341.9184643917</v>
       </c>
     </row>
     <row r="7">
@@ -20433,28 +20433,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>434.4785600379948</v>
+        <v>530.9211335347326</v>
       </c>
       <c r="AB7" t="n">
-        <v>594.4727336852559</v>
+        <v>726.4297174895504</v>
       </c>
       <c r="AC7" t="n">
-        <v>537.7370903300563</v>
+        <v>657.1002848028587</v>
       </c>
       <c r="AD7" t="n">
-        <v>434478.5600379948</v>
+        <v>530921.1335347326</v>
       </c>
       <c r="AE7" t="n">
-        <v>594472.7336852559</v>
+        <v>726429.7174895504</v>
       </c>
       <c r="AF7" t="n">
         <v>9.848204786484145e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>537737.0903300563</v>
+        <v>657100.2848028587</v>
       </c>
     </row>
     <row r="8">
@@ -20539,28 +20539,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>425.4134053909171</v>
+        <v>512.2732192917866</v>
       </c>
       <c r="AB8" t="n">
-        <v>582.0693891707267</v>
+        <v>700.9148185344378</v>
       </c>
       <c r="AC8" t="n">
-        <v>526.5175036077903</v>
+        <v>634.0204919936365</v>
       </c>
       <c r="AD8" t="n">
-        <v>425413.4053909171</v>
+        <v>512273.2192917867</v>
       </c>
       <c r="AE8" t="n">
-        <v>582069.3891707268</v>
+        <v>700914.8185344378</v>
       </c>
       <c r="AF8" t="n">
         <v>1.001361063148051e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>526517.5036077903</v>
+        <v>634020.4919936365</v>
       </c>
     </row>
     <row r="9">
@@ -20645,28 +20645,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>419.5021279434891</v>
+        <v>506.2604566178734</v>
       </c>
       <c r="AB9" t="n">
-        <v>573.9813185800001</v>
+        <v>692.6878913796218</v>
       </c>
       <c r="AC9" t="n">
-        <v>519.2013471225644</v>
+        <v>626.5787312199114</v>
       </c>
       <c r="AD9" t="n">
-        <v>419502.1279434891</v>
+        <v>506260.4566178734</v>
       </c>
       <c r="AE9" t="n">
-        <v>573981.3185800001</v>
+        <v>692687.8913796218</v>
       </c>
       <c r="AF9" t="n">
         <v>1.011809974583882e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.42083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>519201.3471225643</v>
+        <v>626578.7312199115</v>
       </c>
     </row>
     <row r="10">
@@ -20751,28 +20751,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>413.8455666460651</v>
+        <v>500.6038953204494</v>
       </c>
       <c r="AB10" t="n">
-        <v>566.2417618629926</v>
+        <v>684.9483346626141</v>
       </c>
       <c r="AC10" t="n">
-        <v>512.200442836092</v>
+        <v>619.5778269334392</v>
       </c>
       <c r="AD10" t="n">
-        <v>413845.5666460651</v>
+        <v>500603.8953204494</v>
       </c>
       <c r="AE10" t="n">
-        <v>566241.7618629925</v>
+        <v>684948.3346626142</v>
       </c>
       <c r="AF10" t="n">
         <v>1.021285910460912e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.25833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>512200.4428360919</v>
+        <v>619577.8269334391</v>
       </c>
     </row>
     <row r="11">
@@ -20857,28 +20857,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>409.3173956500064</v>
+        <v>486.4929647285223</v>
       </c>
       <c r="AB11" t="n">
-        <v>560.0461185373797</v>
+        <v>665.6411368964178</v>
       </c>
       <c r="AC11" t="n">
-        <v>506.5961030138354</v>
+        <v>602.1132810242262</v>
       </c>
       <c r="AD11" t="n">
-        <v>409317.3956500064</v>
+        <v>486492.9647285223</v>
       </c>
       <c r="AE11" t="n">
-        <v>560046.1185373797</v>
+        <v>665641.1368964178</v>
       </c>
       <c r="AF11" t="n">
         <v>1.028308255798353e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.14166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>506596.1030138354</v>
+        <v>602113.2810242262</v>
       </c>
     </row>
     <row r="12">
@@ -20963,28 +20963,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>404.6923010218353</v>
+        <v>481.8678701003513</v>
       </c>
       <c r="AB12" t="n">
-        <v>553.7178600223417</v>
+        <v>659.3128783813798</v>
       </c>
       <c r="AC12" t="n">
-        <v>500.8718046097061</v>
+        <v>596.388982620097</v>
       </c>
       <c r="AD12" t="n">
-        <v>404692.3010218353</v>
+        <v>481867.8701003513</v>
       </c>
       <c r="AE12" t="n">
-        <v>553717.8600223417</v>
+        <v>659312.8783813799</v>
       </c>
       <c r="AF12" t="n">
         <v>1.03473835514348e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.03333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>500871.8046097061</v>
+        <v>596388.982620097</v>
       </c>
     </row>
     <row r="13">
@@ -21069,28 +21069,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>390.7139707019307</v>
+        <v>477.5396191840194</v>
       </c>
       <c r="AB13" t="n">
-        <v>534.5920917982376</v>
+        <v>653.3907745287008</v>
       </c>
       <c r="AC13" t="n">
-        <v>483.5713728617263</v>
+        <v>591.0320760473926</v>
       </c>
       <c r="AD13" t="n">
-        <v>390713.9707019307</v>
+        <v>477539.6191840195</v>
       </c>
       <c r="AE13" t="n">
-        <v>534592.0917982375</v>
+        <v>653390.7745287009</v>
       </c>
       <c r="AF13" t="n">
         <v>1.04087233149245e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.93333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>483571.3728617263</v>
+        <v>591032.0760473926</v>
       </c>
     </row>
     <row r="14">
@@ -21175,28 +21175,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>387.4517408029153</v>
+        <v>474.277389285004</v>
       </c>
       <c r="AB14" t="n">
-        <v>530.1285649309787</v>
+        <v>648.927247661442</v>
       </c>
       <c r="AC14" t="n">
-        <v>479.5338387340793</v>
+        <v>586.9945419197455</v>
       </c>
       <c r="AD14" t="n">
-        <v>387451.7408029152</v>
+        <v>474277.389285004</v>
       </c>
       <c r="AE14" t="n">
-        <v>530128.5649309787</v>
+        <v>648927.247661442</v>
       </c>
       <c r="AF14" t="n">
         <v>1.044891143583155e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.87083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>479533.8387340793</v>
+        <v>586994.5419197455</v>
       </c>
     </row>
     <row r="15">
@@ -21281,28 +21281,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>384.1660400571717</v>
+        <v>470.9916885392604</v>
       </c>
       <c r="AB15" t="n">
-        <v>525.6329242157659</v>
+        <v>644.4316069462291</v>
       </c>
       <c r="AC15" t="n">
-        <v>475.467255659055</v>
+        <v>582.9279588447213</v>
       </c>
       <c r="AD15" t="n">
-        <v>384166.0400571717</v>
+        <v>470991.6885392604</v>
       </c>
       <c r="AE15" t="n">
-        <v>525632.9242157659</v>
+        <v>644431.6069462291</v>
       </c>
       <c r="AF15" t="n">
         <v>1.048486922822206e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.8125</v>
       </c>
       <c r="AH15" t="n">
-        <v>475467.255659055</v>
+        <v>582927.9588447213</v>
       </c>
     </row>
     <row r="16">
@@ -21387,28 +21387,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>380.7735019890578</v>
+        <v>467.5991504711466</v>
       </c>
       <c r="AB16" t="n">
-        <v>520.991103962756</v>
+        <v>639.7897866932193</v>
       </c>
       <c r="AC16" t="n">
-        <v>471.2684442161568</v>
+        <v>578.729147401823</v>
       </c>
       <c r="AD16" t="n">
-        <v>380773.5019890578</v>
+        <v>467599.1504711466</v>
       </c>
       <c r="AE16" t="n">
-        <v>520991.1039627561</v>
+        <v>639789.7866932193</v>
       </c>
       <c r="AF16" t="n">
         <v>1.050221357513984e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.78333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>471268.4442161567</v>
+        <v>578729.147401823</v>
       </c>
     </row>
     <row r="17">
@@ -21493,28 +21493,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>378.008610314081</v>
+        <v>464.8342587961697</v>
       </c>
       <c r="AB17" t="n">
-        <v>517.2080571946408</v>
+        <v>636.0067399251041</v>
       </c>
       <c r="AC17" t="n">
-        <v>467.8464461220509</v>
+        <v>575.3071493077171</v>
       </c>
       <c r="AD17" t="n">
-        <v>378008.610314081</v>
+        <v>464834.2587961697</v>
       </c>
       <c r="AE17" t="n">
-        <v>517208.0571946408</v>
+        <v>636006.7399251041</v>
       </c>
       <c r="AF17" t="n">
         <v>1.05449398931568e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.71666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>467846.4461220509</v>
+        <v>575307.1493077171</v>
       </c>
     </row>
     <row r="18">
@@ -21599,28 +21599,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>376.0527638965282</v>
+        <v>462.8784123786169</v>
       </c>
       <c r="AB18" t="n">
-        <v>514.5319818402909</v>
+        <v>633.3306645707542</v>
       </c>
       <c r="AC18" t="n">
-        <v>465.4257716436249</v>
+        <v>572.886474829291</v>
       </c>
       <c r="AD18" t="n">
-        <v>376052.7638965282</v>
+        <v>462878.4123786169</v>
       </c>
       <c r="AE18" t="n">
-        <v>514531.9818402909</v>
+        <v>633330.6645707542</v>
       </c>
       <c r="AF18" t="n">
         <v>1.05656685028878e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>465425.7716436249</v>
+        <v>572886.474829291</v>
       </c>
     </row>
     <row r="19">
@@ -21705,28 +21705,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>376.813357041827</v>
+        <v>463.6390055239158</v>
       </c>
       <c r="AB19" t="n">
-        <v>515.5726589366903</v>
+        <v>634.3713416671534</v>
       </c>
       <c r="AC19" t="n">
-        <v>466.3671279785434</v>
+        <v>573.8278311642097</v>
       </c>
       <c r="AD19" t="n">
-        <v>376813.3570418271</v>
+        <v>463639.0055239159</v>
       </c>
       <c r="AE19" t="n">
-        <v>515572.6589366903</v>
+        <v>634371.3416671534</v>
       </c>
       <c r="AF19" t="n">
         <v>1.056651456859111e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.68333333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>466367.1279785433</v>
+        <v>573827.8311642096</v>
       </c>
     </row>
   </sheetData>
@@ -22002,28 +22002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1872.405821159396</v>
+        <v>2087.120870840658</v>
       </c>
       <c r="AB2" t="n">
-        <v>2561.908249225166</v>
+        <v>2855.690852758521</v>
       </c>
       <c r="AC2" t="n">
-        <v>2317.403321579928</v>
+        <v>2583.147725758532</v>
       </c>
       <c r="AD2" t="n">
-        <v>1872405.821159396</v>
+        <v>2087120.870840658</v>
       </c>
       <c r="AE2" t="n">
-        <v>2561908.249225167</v>
+        <v>2855690.852758522</v>
       </c>
       <c r="AF2" t="n">
         <v>3.627163916368194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.175</v>
       </c>
       <c r="AH2" t="n">
-        <v>2317403.321579928</v>
+        <v>2583147.725758532</v>
       </c>
     </row>
     <row r="3">
@@ -22108,28 +22108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>753.6345297903516</v>
+        <v>880.5172190695964</v>
       </c>
       <c r="AB3" t="n">
-        <v>1031.156011668088</v>
+        <v>1204.762504809137</v>
       </c>
       <c r="AC3" t="n">
-        <v>932.7439291510364</v>
+        <v>1089.781662244948</v>
       </c>
       <c r="AD3" t="n">
-        <v>753634.5297903516</v>
+        <v>880517.2190695964</v>
       </c>
       <c r="AE3" t="n">
-        <v>1031156.011668087</v>
+        <v>1204762.504809137</v>
       </c>
       <c r="AF3" t="n">
         <v>6.500591480310428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.65</v>
       </c>
       <c r="AH3" t="n">
-        <v>932743.9291510363</v>
+        <v>1089781.662244948</v>
       </c>
     </row>
     <row r="4">
@@ -22214,28 +22214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>609.9116032385782</v>
+        <v>717.2013027565761</v>
       </c>
       <c r="AB4" t="n">
-        <v>834.5079629519294</v>
+        <v>981.306463119938</v>
       </c>
       <c r="AC4" t="n">
-        <v>754.8636942070787</v>
+        <v>887.6519515520415</v>
       </c>
       <c r="AD4" t="n">
-        <v>609911.6032385782</v>
+        <v>717201.3027565761</v>
       </c>
       <c r="AE4" t="n">
-        <v>834507.9629519293</v>
+        <v>981306.463119938</v>
       </c>
       <c r="AF4" t="n">
         <v>7.551207661344982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.22083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>754863.6942070787</v>
+        <v>887651.9515520415</v>
       </c>
     </row>
     <row r="5">
@@ -22320,28 +22320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>546.1176224805939</v>
+        <v>643.7459722483059</v>
       </c>
       <c r="AB5" t="n">
-        <v>747.2222240870541</v>
+        <v>880.8016392980524</v>
       </c>
       <c r="AC5" t="n">
-        <v>675.9083837531631</v>
+        <v>796.7391670563103</v>
       </c>
       <c r="AD5" t="n">
-        <v>546117.622480594</v>
+        <v>643745.9722483059</v>
       </c>
       <c r="AE5" t="n">
-        <v>747222.2240870541</v>
+        <v>880801.6392980523</v>
       </c>
       <c r="AF5" t="n">
         <v>8.097666516853803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.7875</v>
       </c>
       <c r="AH5" t="n">
-        <v>675908.383753163</v>
+        <v>796739.1670563103</v>
       </c>
     </row>
     <row r="6">
@@ -22426,28 +22426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>511.598226498509</v>
+        <v>609.19241084744</v>
       </c>
       <c r="AB6" t="n">
-        <v>699.9912636160947</v>
+        <v>833.5239321938451</v>
       </c>
       <c r="AC6" t="n">
-        <v>633.1850798604827</v>
+        <v>753.97357796345</v>
       </c>
       <c r="AD6" t="n">
-        <v>511598.2264985089</v>
+        <v>609192.41084744</v>
       </c>
       <c r="AE6" t="n">
-        <v>699991.2636160947</v>
+        <v>833523.932193845</v>
       </c>
       <c r="AF6" t="n">
         <v>8.445692740805586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.97083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>633185.0798604827</v>
+        <v>753973.57796345</v>
       </c>
     </row>
     <row r="7">
@@ -22532,28 +22532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>496.6098295280166</v>
+        <v>584.4080245112527</v>
       </c>
       <c r="AB7" t="n">
-        <v>679.4834776396607</v>
+        <v>799.6128413987176</v>
       </c>
       <c r="AC7" t="n">
-        <v>614.6345281947813</v>
+        <v>723.2989140792946</v>
       </c>
       <c r="AD7" t="n">
-        <v>496609.8295280166</v>
+        <v>584408.0245112528</v>
       </c>
       <c r="AE7" t="n">
-        <v>679483.4776396607</v>
+        <v>799612.8413987176</v>
       </c>
       <c r="AF7" t="n">
         <v>8.671813646533374e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.475</v>
       </c>
       <c r="AH7" t="n">
-        <v>614634.5281947813</v>
+        <v>723298.9140792947</v>
       </c>
     </row>
     <row r="8">
@@ -22638,28 +22638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>485.9621117302319</v>
+        <v>573.7603067134683</v>
       </c>
       <c r="AB8" t="n">
-        <v>664.9148004045757</v>
+        <v>785.0441641636324</v>
       </c>
       <c r="AC8" t="n">
-        <v>601.4562650677457</v>
+        <v>710.1206509522591</v>
       </c>
       <c r="AD8" t="n">
-        <v>485962.1117302319</v>
+        <v>573760.3067134683</v>
       </c>
       <c r="AE8" t="n">
-        <v>664914.8004045757</v>
+        <v>785044.1641636324</v>
       </c>
       <c r="AF8" t="n">
         <v>8.836020494740458e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.13333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>601456.2650677457</v>
+        <v>710120.6509522591</v>
       </c>
     </row>
     <row r="9">
@@ -22744,28 +22744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>467.2062923634526</v>
+        <v>564.7663112936029</v>
       </c>
       <c r="AB9" t="n">
-        <v>639.2522608985959</v>
+        <v>772.7381828430985</v>
       </c>
       <c r="AC9" t="n">
-        <v>578.2429223146163</v>
+        <v>698.9891352174036</v>
       </c>
       <c r="AD9" t="n">
-        <v>467206.2923634526</v>
+        <v>564766.3112936029</v>
       </c>
       <c r="AE9" t="n">
-        <v>639252.2608985959</v>
+        <v>772738.1828430984</v>
       </c>
       <c r="AF9" t="n">
         <v>8.976769221775101e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="AH9" t="n">
-        <v>578242.9223146163</v>
+        <v>698989.1352174036</v>
       </c>
     </row>
     <row r="10">
@@ -22850,28 +22850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>461.3645572395207</v>
+        <v>549.2300720304614</v>
       </c>
       <c r="AB10" t="n">
-        <v>631.2593411828675</v>
+        <v>751.4808148727659</v>
       </c>
       <c r="AC10" t="n">
-        <v>571.0128356384238</v>
+        <v>679.7605406112564</v>
       </c>
       <c r="AD10" t="n">
-        <v>461364.5572395207</v>
+        <v>549230.0720304614</v>
       </c>
       <c r="AE10" t="n">
-        <v>631259.3411828675</v>
+        <v>751480.8148727659</v>
       </c>
       <c r="AF10" t="n">
         <v>9.062525959831729e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.67916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>571012.8356384238</v>
+        <v>679760.5406112564</v>
       </c>
     </row>
     <row r="11">
@@ -22956,28 +22956,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>455.6264279126512</v>
+        <v>543.4919427035919</v>
       </c>
       <c r="AB11" t="n">
-        <v>623.4081794894452</v>
+        <v>743.6296531793436</v>
       </c>
       <c r="AC11" t="n">
-        <v>563.9109777978468</v>
+        <v>672.6586827706794</v>
       </c>
       <c r="AD11" t="n">
-        <v>455626.4279126512</v>
+        <v>543491.9427035919</v>
       </c>
       <c r="AE11" t="n">
-        <v>623408.1794894452</v>
+        <v>743629.6531793436</v>
       </c>
       <c r="AF11" t="n">
         <v>9.154435647704079e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.50416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>563910.9777978469</v>
+        <v>672658.6827706795</v>
       </c>
     </row>
     <row r="12">
@@ -23062,28 +23062,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>450.5135448032943</v>
+        <v>538.2775743677498</v>
       </c>
       <c r="AB12" t="n">
-        <v>616.41250725474</v>
+        <v>736.495124380549</v>
       </c>
       <c r="AC12" t="n">
-        <v>557.5829627027344</v>
+        <v>666.2050633870679</v>
       </c>
       <c r="AD12" t="n">
-        <v>450513.5448032944</v>
+        <v>538277.5743677499</v>
       </c>
       <c r="AE12" t="n">
-        <v>616412.50725474</v>
+        <v>736495.124380549</v>
       </c>
       <c r="AF12" t="n">
         <v>9.22750192676578e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.36666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>557582.9627027344</v>
+        <v>666205.0633870679</v>
       </c>
     </row>
     <row r="13">
@@ -23168,28 +23168,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>446.5927196564227</v>
+        <v>534.3567492208782</v>
       </c>
       <c r="AB13" t="n">
-        <v>611.0478613141927</v>
+        <v>731.1304784400016</v>
       </c>
       <c r="AC13" t="n">
-        <v>552.730311041425</v>
+        <v>661.3524117257585</v>
       </c>
       <c r="AD13" t="n">
-        <v>446592.7196564227</v>
+        <v>534356.7492208782</v>
       </c>
       <c r="AE13" t="n">
-        <v>611047.8613141926</v>
+        <v>731130.4784400016</v>
       </c>
       <c r="AF13" t="n">
         <v>9.284032153197727e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.25833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>552730.311041425</v>
+        <v>661352.4117257586</v>
       </c>
     </row>
     <row r="14">
@@ -23274,28 +23274,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>443.3628207573959</v>
+        <v>531.1268503218514</v>
       </c>
       <c r="AB14" t="n">
-        <v>606.6285711474615</v>
+        <v>726.7111882732704</v>
       </c>
       <c r="AC14" t="n">
-        <v>548.7327917256938</v>
+        <v>657.3548924100273</v>
       </c>
       <c r="AD14" t="n">
-        <v>443362.8207573959</v>
+        <v>531126.8503218514</v>
       </c>
       <c r="AE14" t="n">
-        <v>606628.5711474614</v>
+        <v>726711.1882732704</v>
       </c>
       <c r="AF14" t="n">
         <v>9.321334411455542e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.19166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>548732.7917256939</v>
+        <v>657354.8924100273</v>
       </c>
     </row>
     <row r="15">
@@ -23380,28 +23380,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>440.7226409260766</v>
+        <v>518.7921663513225</v>
       </c>
       <c r="AB15" t="n">
-        <v>603.0161606257367</v>
+        <v>709.8343294969416</v>
       </c>
       <c r="AC15" t="n">
-        <v>545.4651445941126</v>
+        <v>642.0887373484913</v>
       </c>
       <c r="AD15" t="n">
-        <v>440722.6409260766</v>
+        <v>518792.1663513226</v>
       </c>
       <c r="AE15" t="n">
-        <v>603016.1606257367</v>
+        <v>709834.3294969415</v>
       </c>
       <c r="AF15" t="n">
         <v>9.355175635442013e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.12916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>545465.1445941126</v>
+        <v>642088.7373484913</v>
       </c>
     </row>
     <row r="16">
@@ -23486,28 +23486,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>437.3388290440968</v>
+        <v>515.4083544693427</v>
       </c>
       <c r="AB16" t="n">
-        <v>598.3862799255676</v>
+        <v>705.2044487967725</v>
       </c>
       <c r="AC16" t="n">
-        <v>541.2771332098891</v>
+        <v>637.9007259642678</v>
       </c>
       <c r="AD16" t="n">
-        <v>437338.8290440968</v>
+        <v>515408.3544693427</v>
       </c>
       <c r="AE16" t="n">
-        <v>598386.2799255676</v>
+        <v>705204.4487967724</v>
       </c>
       <c r="AF16" t="n">
         <v>9.396323487334655e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.05416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>541277.1332098892</v>
+        <v>637900.7259642679</v>
       </c>
     </row>
     <row r="17">
@@ -23592,28 +23592,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>424.1975363842363</v>
+        <v>512.0288857563962</v>
       </c>
       <c r="AB17" t="n">
-        <v>580.4057835554311</v>
+        <v>700.5805106120818</v>
       </c>
       <c r="AC17" t="n">
-        <v>525.0126701775336</v>
+        <v>633.7180899501861</v>
       </c>
       <c r="AD17" t="n">
-        <v>424197.5363842363</v>
+        <v>512028.8857563962</v>
       </c>
       <c r="AE17" t="n">
-        <v>580405.7835554311</v>
+        <v>700580.5106120817</v>
       </c>
       <c r="AF17" t="n">
         <v>9.440547814135157e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.975</v>
       </c>
       <c r="AH17" t="n">
-        <v>525012.6701775335</v>
+        <v>633718.0899501861</v>
       </c>
     </row>
     <row r="18">
@@ -23698,28 +23698,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>421.951585916656</v>
+        <v>509.7829352888158</v>
       </c>
       <c r="AB18" t="n">
-        <v>577.3327750413459</v>
+        <v>697.5075020979965</v>
       </c>
       <c r="AC18" t="n">
-        <v>522.232945283038</v>
+        <v>630.9383650556906</v>
       </c>
       <c r="AD18" t="n">
-        <v>421951.585916656</v>
+        <v>509782.9352888159</v>
       </c>
       <c r="AE18" t="n">
-        <v>577332.775041346</v>
+        <v>697507.5020979965</v>
       </c>
       <c r="AF18" t="n">
         <v>9.458237544855358e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.94166666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>522232.9452830381</v>
+        <v>630938.3650556906</v>
       </c>
     </row>
     <row r="19">
@@ -23804,28 +23804,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>419.3729580885459</v>
+        <v>507.2043074607059</v>
       </c>
       <c r="AB19" t="n">
-        <v>573.8045826858951</v>
+        <v>693.9793097425455</v>
       </c>
       <c r="AC19" t="n">
-        <v>519.0414786541423</v>
+        <v>627.7468984267949</v>
       </c>
       <c r="AD19" t="n">
-        <v>419372.9580885459</v>
+        <v>507204.3074607059</v>
       </c>
       <c r="AE19" t="n">
-        <v>573804.582685895</v>
+        <v>693979.3097425455</v>
       </c>
       <c r="AF19" t="n">
         <v>9.474773597485112e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.9125</v>
       </c>
       <c r="AH19" t="n">
-        <v>519041.4786541424</v>
+        <v>627746.8984267949</v>
       </c>
     </row>
     <row r="20">
@@ -23910,28 +23910,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>416.4943758521546</v>
+        <v>504.3257252243145</v>
       </c>
       <c r="AB20" t="n">
-        <v>569.8659794759789</v>
+        <v>690.0407065326294</v>
       </c>
       <c r="AC20" t="n">
-        <v>515.4787702067163</v>
+        <v>624.1841899793689</v>
       </c>
       <c r="AD20" t="n">
-        <v>416494.3758521546</v>
+        <v>504325.7252243145</v>
       </c>
       <c r="AE20" t="n">
-        <v>569865.9794759789</v>
+        <v>690040.7065326294</v>
       </c>
       <c r="AF20" t="n">
         <v>9.514767771287306e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.84166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>515478.7702067163</v>
+        <v>624184.1899793688</v>
       </c>
     </row>
     <row r="21">
@@ -24016,28 +24016,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>413.9032723584494</v>
+        <v>501.7346217306092</v>
       </c>
       <c r="AB21" t="n">
-        <v>566.3207173644729</v>
+        <v>686.4954444211235</v>
       </c>
       <c r="AC21" t="n">
-        <v>512.2718629353259</v>
+        <v>620.9772827079782</v>
       </c>
       <c r="AD21" t="n">
-        <v>413903.2723584494</v>
+        <v>501734.6217306092</v>
       </c>
       <c r="AE21" t="n">
-        <v>566320.7173644729</v>
+        <v>686495.4444211235</v>
       </c>
       <c r="AF21" t="n">
         <v>9.537456773732782e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="AH21" t="n">
-        <v>512271.8629353258</v>
+        <v>620977.2827079783</v>
       </c>
     </row>
     <row r="22">
@@ -24122,28 +24122,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>411.4748833707438</v>
+        <v>499.3062327429038</v>
       </c>
       <c r="AB22" t="n">
-        <v>562.9980884185331</v>
+        <v>683.1728154751837</v>
       </c>
       <c r="AC22" t="n">
-        <v>509.2663410326475</v>
+        <v>617.9717608052999</v>
       </c>
       <c r="AD22" t="n">
-        <v>411474.8833707438</v>
+        <v>499306.2327429038</v>
       </c>
       <c r="AE22" t="n">
-        <v>562998.0884185331</v>
+        <v>683172.8154751837</v>
       </c>
       <c r="AF22" t="n">
         <v>9.555146504452983e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>509266.3410326475</v>
+        <v>617971.7608053</v>
       </c>
     </row>
     <row r="23">
@@ -24228,28 +24228,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>410.8154255968492</v>
+        <v>498.6467749690091</v>
       </c>
       <c r="AB23" t="n">
-        <v>562.0957891990668</v>
+        <v>682.2705162557174</v>
       </c>
       <c r="AC23" t="n">
-        <v>508.4501559843022</v>
+        <v>617.1555757569547</v>
       </c>
       <c r="AD23" t="n">
-        <v>410815.4255968492</v>
+        <v>498646.7749690091</v>
       </c>
       <c r="AE23" t="n">
-        <v>562095.7891990668</v>
+        <v>682270.5162557175</v>
       </c>
       <c r="AF23" t="n">
         <v>9.548608995273778e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.77916666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>508450.1559843022</v>
+        <v>617155.5757569547</v>
       </c>
     </row>
     <row r="24">
@@ -24334,28 +24334,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>408.9332011645533</v>
+        <v>496.7645505367132</v>
       </c>
       <c r="AB24" t="n">
-        <v>559.5204466929181</v>
+        <v>679.6951737495687</v>
       </c>
       <c r="AC24" t="n">
-        <v>506.1206005524243</v>
+        <v>614.8260203250768</v>
       </c>
       <c r="AD24" t="n">
-        <v>408933.2011645533</v>
+        <v>496764.5505367132</v>
       </c>
       <c r="AE24" t="n">
-        <v>559520.4466929181</v>
+        <v>679695.1737495686</v>
       </c>
       <c r="AF24" t="n">
         <v>9.568606082174874e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.74583333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>506120.6005524243</v>
+        <v>614826.0203250768</v>
       </c>
     </row>
     <row r="25">
@@ -24440,28 +24440,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>406.5194204450621</v>
+        <v>494.350769817222</v>
       </c>
       <c r="AB25" t="n">
-        <v>556.2178054240204</v>
+        <v>676.3925324806711</v>
       </c>
       <c r="AC25" t="n">
-        <v>503.1331587309442</v>
+        <v>611.8385785035969</v>
       </c>
       <c r="AD25" t="n">
-        <v>406519.4204450621</v>
+        <v>494350.769817222</v>
       </c>
       <c r="AE25" t="n">
-        <v>556217.8054240204</v>
+        <v>676392.5324806711</v>
       </c>
       <c r="AF25" t="n">
         <v>9.589372287802936e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.70833333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>503133.1587309442</v>
+        <v>611838.5785035968</v>
       </c>
     </row>
     <row r="26">
@@ -24546,28 +24546,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>406.987320636254</v>
+        <v>494.8186700084139</v>
       </c>
       <c r="AB26" t="n">
-        <v>556.8580071079089</v>
+        <v>677.0327341645594</v>
       </c>
       <c r="AC26" t="n">
-        <v>503.7122604646509</v>
+        <v>612.4176802373034</v>
       </c>
       <c r="AD26" t="n">
-        <v>406987.320636254</v>
+        <v>494818.6700084139</v>
       </c>
       <c r="AE26" t="n">
-        <v>556858.0071079088</v>
+        <v>677032.7341645594</v>
       </c>
       <c r="AF26" t="n">
         <v>9.589372287802936e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.70833333333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>503712.2604646509</v>
+        <v>612417.6802373035</v>
       </c>
     </row>
     <row r="27">
@@ -24652,28 +24652,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>407.7060176969205</v>
+        <v>495.5373670690804</v>
       </c>
       <c r="AB27" t="n">
-        <v>557.8413601329893</v>
+        <v>678.01608718964</v>
       </c>
       <c r="AC27" t="n">
-        <v>504.6017636571625</v>
+        <v>613.3071834298149</v>
       </c>
       <c r="AD27" t="n">
-        <v>407706.0176969205</v>
+        <v>495537.3670690804</v>
       </c>
       <c r="AE27" t="n">
-        <v>557841.3601329892</v>
+        <v>678016.0871896399</v>
       </c>
       <c r="AF27" t="n">
         <v>9.587834050349005e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.7125</v>
       </c>
       <c r="AH27" t="n">
-        <v>504601.7636571624</v>
+        <v>613307.1834298149</v>
       </c>
     </row>
   </sheetData>
@@ -24949,28 +24949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>815.1780585007812</v>
+        <v>957.9400229200915</v>
       </c>
       <c r="AB2" t="n">
-        <v>1115.362582758561</v>
+        <v>1310.695800690426</v>
       </c>
       <c r="AC2" t="n">
-        <v>1008.9139432813</v>
+        <v>1185.604833045641</v>
       </c>
       <c r="AD2" t="n">
-        <v>815178.0585007812</v>
+        <v>957940.0229200914</v>
       </c>
       <c r="AE2" t="n">
-        <v>1115362.582758561</v>
+        <v>1310695.800690426</v>
       </c>
       <c r="AF2" t="n">
         <v>6.934187867450214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1008913.9432813</v>
+        <v>1185604.83304564</v>
       </c>
     </row>
     <row r="3">
@@ -25055,28 +25055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>498.3300851377949</v>
+        <v>603.0130816002809</v>
       </c>
       <c r="AB3" t="n">
-        <v>681.8372072572807</v>
+        <v>825.0691013051155</v>
       </c>
       <c r="AC3" t="n">
-        <v>616.7636211611759</v>
+        <v>746.325664268311</v>
       </c>
       <c r="AD3" t="n">
-        <v>498330.0851377948</v>
+        <v>603013.0816002808</v>
       </c>
       <c r="AE3" t="n">
-        <v>681837.2072572807</v>
+        <v>825069.1013051155</v>
       </c>
       <c r="AF3" t="n">
         <v>9.617925677322056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>616763.6211611759</v>
+        <v>746325.664268311</v>
       </c>
     </row>
     <row r="4">
@@ -25161,28 +25161,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>432.4174271019459</v>
+        <v>527.5806815752256</v>
       </c>
       <c r="AB4" t="n">
-        <v>591.6526006713863</v>
+        <v>721.8591637482133</v>
       </c>
       <c r="AC4" t="n">
-        <v>535.1861068529488</v>
+        <v>652.9659382957825</v>
       </c>
       <c r="AD4" t="n">
-        <v>432417.4271019459</v>
+        <v>527580.6815752257</v>
       </c>
       <c r="AE4" t="n">
-        <v>591652.6006713862</v>
+        <v>721859.1637482133</v>
       </c>
       <c r="AF4" t="n">
         <v>1.055133716639324e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.93333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>535186.1068529488</v>
+        <v>652965.9382957825</v>
       </c>
     </row>
     <row r="5">
@@ -25267,28 +25267,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.1925563478492</v>
+        <v>496.8029144429993</v>
       </c>
       <c r="AB5" t="n">
-        <v>562.6117961304196</v>
+        <v>679.7476649386455</v>
       </c>
       <c r="AC5" t="n">
-        <v>508.9169159383468</v>
+        <v>614.8735018287401</v>
       </c>
       <c r="AD5" t="n">
-        <v>411192.5563478492</v>
+        <v>496802.9144429993</v>
       </c>
       <c r="AE5" t="n">
-        <v>562611.7961304196</v>
+        <v>679747.6649386454</v>
       </c>
       <c r="AF5" t="n">
         <v>1.103602079014823e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.1</v>
       </c>
       <c r="AH5" t="n">
-        <v>508916.9159383468</v>
+        <v>614873.5018287401</v>
       </c>
     </row>
     <row r="6">
@@ -25373,28 +25373,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.5653810737332</v>
+        <v>474.2430589765879</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.6522966798533</v>
+        <v>648.8802754189209</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.9121476634123</v>
+        <v>586.9520526421246</v>
       </c>
       <c r="AD6" t="n">
-        <v>388565.3810737333</v>
+        <v>474243.0589765878</v>
       </c>
       <c r="AE6" t="n">
-        <v>531652.2966798533</v>
+        <v>648880.2754189209</v>
       </c>
       <c r="AF6" t="n">
         <v>1.133517270035902e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.62083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>480912.1476634123</v>
+        <v>586952.0526421246</v>
       </c>
     </row>
     <row r="7">
@@ -25479,28 +25479,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>380.0069151188818</v>
+        <v>465.5831077952511</v>
       </c>
       <c r="AB7" t="n">
-        <v>519.9422259875554</v>
+        <v>637.0313481625335</v>
       </c>
       <c r="AC7" t="n">
-        <v>470.3196696827997</v>
+        <v>576.2339703730131</v>
       </c>
       <c r="AD7" t="n">
-        <v>380006.9151188817</v>
+        <v>465583.1077952511</v>
       </c>
       <c r="AE7" t="n">
-        <v>519942.2259875553</v>
+        <v>637031.3481625335</v>
       </c>
       <c r="AF7" t="n">
         <v>1.152166323412825e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.3375</v>
       </c>
       <c r="AH7" t="n">
-        <v>470319.6696827997</v>
+        <v>576233.9703730131</v>
       </c>
     </row>
     <row r="8">
@@ -25585,28 +25585,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>373.4572233188823</v>
+        <v>449.5820048436071</v>
       </c>
       <c r="AB8" t="n">
-        <v>510.980648714787</v>
+        <v>615.1379331852531</v>
       </c>
       <c r="AC8" t="n">
-        <v>462.2133727672916</v>
+        <v>556.4300321935635</v>
       </c>
       <c r="AD8" t="n">
-        <v>373457.2233188822</v>
+        <v>449582.0048436071</v>
       </c>
       <c r="AE8" t="n">
-        <v>510980.648714787</v>
+        <v>615137.9331852532</v>
       </c>
       <c r="AF8" t="n">
         <v>1.165254219484547e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.14166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>462213.3727672916</v>
+        <v>556430.0321935635</v>
       </c>
     </row>
     <row r="9">
@@ -25691,28 +25691,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>357.7793803740136</v>
+        <v>443.4228928580874</v>
       </c>
       <c r="AB9" t="n">
-        <v>489.5295323400018</v>
+        <v>606.7107644458214</v>
       </c>
       <c r="AC9" t="n">
-        <v>442.8095208324851</v>
+        <v>548.8071406110174</v>
       </c>
       <c r="AD9" t="n">
-        <v>357779.3803740136</v>
+        <v>443422.8928580874</v>
       </c>
       <c r="AE9" t="n">
-        <v>489529.5323400018</v>
+        <v>606710.7644458214</v>
       </c>
       <c r="AF9" t="n">
         <v>1.175753300948676e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.9875</v>
       </c>
       <c r="AH9" t="n">
-        <v>442809.5208324851</v>
+        <v>548807.1406110175</v>
       </c>
     </row>
     <row r="10">
@@ -25797,28 +25797,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>351.8872424184248</v>
+        <v>437.5307549024985</v>
       </c>
       <c r="AB10" t="n">
-        <v>481.4676492463843</v>
+        <v>598.6488813522041</v>
       </c>
       <c r="AC10" t="n">
-        <v>435.5170525463984</v>
+        <v>541.5146723249308</v>
       </c>
       <c r="AD10" t="n">
-        <v>351887.2424184248</v>
+        <v>437530.7549024985</v>
       </c>
       <c r="AE10" t="n">
-        <v>481467.6492463843</v>
+        <v>598648.881352204</v>
       </c>
       <c r="AF10" t="n">
         <v>1.185916795334043e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.84583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>435517.0525463984</v>
+        <v>541514.6723249308</v>
       </c>
     </row>
     <row r="11">
@@ -25903,28 +25903,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>347.7717359165014</v>
+        <v>433.4152484005753</v>
       </c>
       <c r="AB11" t="n">
-        <v>475.8366316871201</v>
+        <v>593.0178637929398</v>
       </c>
       <c r="AC11" t="n">
-        <v>430.4234513998076</v>
+        <v>536.42107117834</v>
       </c>
       <c r="AD11" t="n">
-        <v>347771.7359165014</v>
+        <v>433415.2484005752</v>
       </c>
       <c r="AE11" t="n">
-        <v>475836.6316871201</v>
+        <v>593017.8637929398</v>
       </c>
       <c r="AF11" t="n">
         <v>1.191765598706754e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.7625</v>
       </c>
       <c r="AH11" t="n">
-        <v>430423.4513998076</v>
+        <v>536421.07117834</v>
       </c>
     </row>
     <row r="12">
@@ -26009,28 +26009,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>346.9010105658868</v>
+        <v>432.5445230499607</v>
       </c>
       <c r="AB12" t="n">
-        <v>474.6452668487179</v>
+        <v>591.8264989545376</v>
       </c>
       <c r="AC12" t="n">
-        <v>429.3457887494914</v>
+        <v>535.3434085280238</v>
       </c>
       <c r="AD12" t="n">
-        <v>346901.0105658869</v>
+        <v>432544.5230499607</v>
       </c>
       <c r="AE12" t="n">
-        <v>474645.2668487179</v>
+        <v>591826.4989545376</v>
       </c>
       <c r="AF12" t="n">
         <v>1.192820300954292e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.74583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>429345.7887494914</v>
+        <v>535343.4085280239</v>
       </c>
     </row>
   </sheetData>
@@ -26306,28 +26306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>599.3420436501377</v>
+        <v>721.5200120237656</v>
       </c>
       <c r="AB2" t="n">
-        <v>820.0462252269656</v>
+        <v>987.2155116673126</v>
       </c>
       <c r="AC2" t="n">
-        <v>741.782164433409</v>
+        <v>892.9970487994565</v>
       </c>
       <c r="AD2" t="n">
-        <v>599342.0436501377</v>
+        <v>721520.0120237656</v>
       </c>
       <c r="AE2" t="n">
-        <v>820046.2252269656</v>
+        <v>987215.5116673126</v>
       </c>
       <c r="AF2" t="n">
         <v>9.094277974507759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.975</v>
       </c>
       <c r="AH2" t="n">
-        <v>741782.164433409</v>
+        <v>892997.0487994564</v>
       </c>
     </row>
     <row r="3">
@@ -26412,28 +26412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.7025639124162</v>
+        <v>511.6104123723991</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.5190756815243</v>
+        <v>700.0079368663539</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.9740972305393</v>
+        <v>633.2001618391384</v>
       </c>
       <c r="AD3" t="n">
-        <v>417702.5639124162</v>
+        <v>511610.4123723991</v>
       </c>
       <c r="AE3" t="n">
-        <v>571519.0756815244</v>
+        <v>700007.936866354</v>
       </c>
       <c r="AF3" t="n">
         <v>1.165253767206605e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.49166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>516974.0972305394</v>
+        <v>633200.1618391385</v>
       </c>
     </row>
     <row r="4">
@@ -26518,28 +26518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.5489131145693</v>
+        <v>462.0899936246862</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.5790792058599</v>
+        <v>632.2519152490457</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.277496909743</v>
+        <v>571.9106798288122</v>
       </c>
       <c r="AD4" t="n">
-        <v>377548.9131145693</v>
+        <v>462089.9936246862</v>
       </c>
       <c r="AE4" t="n">
-        <v>516579.0792058599</v>
+        <v>632251.9152490457</v>
       </c>
       <c r="AF4" t="n">
         <v>1.251655676872701e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>467277.4969097431</v>
+        <v>571910.6798288123</v>
       </c>
     </row>
     <row r="5">
@@ -26624,28 +26624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.5097281914202</v>
+        <v>437.1181285092415</v>
       </c>
       <c r="AB5" t="n">
-        <v>482.3193617431308</v>
+        <v>598.084307717158</v>
       </c>
       <c r="AC5" t="n">
-        <v>436.2874787978413</v>
+        <v>541.0039808052296</v>
       </c>
       <c r="AD5" t="n">
-        <v>352509.7281914201</v>
+        <v>437118.1285092415</v>
       </c>
       <c r="AE5" t="n">
-        <v>482319.3617431308</v>
+        <v>598084.307717158</v>
       </c>
       <c r="AF5" t="n">
         <v>1.296682791941594e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.51666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>436287.4787978414</v>
+        <v>541003.9808052296</v>
       </c>
     </row>
     <row r="6">
@@ -26730,28 +26730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>342.3654406146088</v>
+        <v>426.8723557059449</v>
       </c>
       <c r="AB6" t="n">
-        <v>468.4394999461549</v>
+        <v>584.0655893560928</v>
       </c>
       <c r="AC6" t="n">
-        <v>423.7322915302606</v>
+        <v>528.3231892491498</v>
       </c>
       <c r="AD6" t="n">
-        <v>342365.4406146088</v>
+        <v>426872.3557059449</v>
       </c>
       <c r="AE6" t="n">
-        <v>468439.4999461549</v>
+        <v>584065.5893560929</v>
       </c>
       <c r="AF6" t="n">
         <v>1.322903182193576e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.17083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>423732.2915302606</v>
+        <v>528323.1892491498</v>
       </c>
     </row>
     <row r="7">
@@ -26836,28 +26836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>324.3578039551753</v>
+        <v>408.9320388542158</v>
       </c>
       <c r="AB7" t="n">
-        <v>443.8006570278574</v>
+        <v>559.518856368637</v>
       </c>
       <c r="AC7" t="n">
-        <v>401.4449451992522</v>
+        <v>506.1191620064604</v>
       </c>
       <c r="AD7" t="n">
-        <v>324357.8039551753</v>
+        <v>408932.0388542158</v>
       </c>
       <c r="AE7" t="n">
-        <v>443800.6570278574</v>
+        <v>559518.8563686369</v>
       </c>
       <c r="AF7" t="n">
         <v>1.342309541714794e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.92083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>401444.9451992522</v>
+        <v>506119.1620064604</v>
       </c>
     </row>
     <row r="8">
@@ -26942,28 +26942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>322.3778678411907</v>
+        <v>406.9521027402313</v>
       </c>
       <c r="AB8" t="n">
-        <v>441.0916210880873</v>
+        <v>556.8098204288667</v>
       </c>
       <c r="AC8" t="n">
-        <v>398.9944558474178</v>
+        <v>503.6686726546259</v>
       </c>
       <c r="AD8" t="n">
-        <v>322377.8678411907</v>
+        <v>406952.1027402313</v>
       </c>
       <c r="AE8" t="n">
-        <v>441091.6210880873</v>
+        <v>556809.8204288667</v>
       </c>
       <c r="AF8" t="n">
         <v>1.346888570365868e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.8625</v>
       </c>
       <c r="AH8" t="n">
-        <v>398994.4558474178</v>
+        <v>503668.672654626</v>
       </c>
     </row>
   </sheetData>
@@ -50700,28 +50700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.0131046175975</v>
+        <v>593.6505482106444</v>
       </c>
       <c r="AB2" t="n">
-        <v>659.5115946551709</v>
+        <v>812.258870075593</v>
       </c>
       <c r="AC2" t="n">
-        <v>596.5687336916174</v>
+        <v>734.7380235280618</v>
       </c>
       <c r="AD2" t="n">
-        <v>482013.1046175975</v>
+        <v>593650.5482106444</v>
       </c>
       <c r="AE2" t="n">
-        <v>659511.5946551709</v>
+        <v>812258.870075593</v>
       </c>
       <c r="AF2" t="n">
         <v>1.124787391800475e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.67916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>596568.7336916174</v>
+        <v>734738.0235280618</v>
       </c>
     </row>
     <row r="3">
@@ -50806,28 +50806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.2078351606229</v>
+        <v>453.2333439183651</v>
       </c>
       <c r="AB3" t="n">
-        <v>492.8522513149045</v>
+        <v>620.1338563930482</v>
       </c>
       <c r="AC3" t="n">
-        <v>445.8151241718884</v>
+        <v>560.9491515022289</v>
       </c>
       <c r="AD3" t="n">
-        <v>360207.835160623</v>
+        <v>453233.3439183651</v>
       </c>
       <c r="AE3" t="n">
-        <v>492852.2513149045</v>
+        <v>620133.8563930482</v>
       </c>
       <c r="AF3" t="n">
         <v>1.367094499880064e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>445815.1241718885</v>
+        <v>560949.1515022289</v>
       </c>
     </row>
     <row r="4">
@@ -50912,28 +50912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.3516615181908</v>
+        <v>411.1053682770615</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.8969850252493</v>
+        <v>562.4925015655017</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.1503254018053</v>
+        <v>508.8090066792737</v>
       </c>
       <c r="AD4" t="n">
-        <v>327351.6615181908</v>
+        <v>411105.3682770616</v>
       </c>
       <c r="AE4" t="n">
-        <v>447896.9850252493</v>
+        <v>562492.5015655017</v>
       </c>
       <c r="AF4" t="n">
         <v>1.451577523919941e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.57083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>405150.3254018053</v>
+        <v>508809.0066792737</v>
       </c>
     </row>
     <row r="5">
@@ -51018,28 +51018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.5970451155541</v>
+        <v>389.0116300678489</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.445556169199</v>
+        <v>532.2628742407186</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.3644364225423</v>
+        <v>481.4644525588195</v>
       </c>
       <c r="AD5" t="n">
-        <v>314597.0451155541</v>
+        <v>389011.6300678489</v>
       </c>
       <c r="AE5" t="n">
-        <v>430445.556169199</v>
+        <v>532262.8742407185</v>
       </c>
       <c r="AF5" t="n">
         <v>1.492472205121852e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.09166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>389364.4364225423</v>
+        <v>481464.4525588194</v>
       </c>
     </row>
     <row r="6">
@@ -51124,28 +51124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>313.3444742018689</v>
+        <v>387.7590591541637</v>
       </c>
       <c r="AB6" t="n">
-        <v>428.7317333855663</v>
+        <v>530.5490514570857</v>
       </c>
       <c r="AC6" t="n">
-        <v>387.8141784800141</v>
+        <v>479.9141946162912</v>
       </c>
       <c r="AD6" t="n">
-        <v>313344.4742018689</v>
+        <v>387759.0591541637</v>
       </c>
       <c r="AE6" t="n">
-        <v>428731.7333855663</v>
+        <v>530549.0514570858</v>
       </c>
       <c r="AF6" t="n">
         <v>1.497675869646047e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.03333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>387814.1784800141</v>
+        <v>479914.1946162913</v>
       </c>
     </row>
   </sheetData>
@@ -51421,28 +51421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.7858267865506</v>
+        <v>406.8614960819548</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.0720996968024</v>
+        <v>556.6858484017292</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.8357449187394</v>
+        <v>503.5565323437628</v>
       </c>
       <c r="AD2" t="n">
-        <v>315785.8267865506</v>
+        <v>406861.4960819548</v>
       </c>
       <c r="AE2" t="n">
-        <v>432072.0996968024</v>
+        <v>556685.8484017293</v>
       </c>
       <c r="AF2" t="n">
         <v>1.758960265898124e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.17916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>390835.7449187394</v>
+        <v>503556.5323437628</v>
       </c>
     </row>
     <row r="3">
@@ -51527,28 +51527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.9983013889521</v>
+        <v>368.10712507328</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.0012962629571</v>
+        <v>503.6604082654777</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8299444792798</v>
+        <v>455.5917657924423</v>
       </c>
       <c r="AD3" t="n">
-        <v>276998.3013889521</v>
+        <v>368107.12507328</v>
       </c>
       <c r="AE3" t="n">
-        <v>379001.296262957</v>
+        <v>503660.4082654776</v>
       </c>
       <c r="AF3" t="n">
         <v>1.889157656229747e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.85833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>342829.9444792798</v>
+        <v>455591.7657924424</v>
       </c>
     </row>
   </sheetData>
@@ -51824,28 +51824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1102.765481151663</v>
+        <v>1266.21139419287</v>
       </c>
       <c r="AB2" t="n">
-        <v>1508.852381891148</v>
+        <v>1732.486290838904</v>
       </c>
       <c r="AC2" t="n">
-        <v>1364.849628251075</v>
+        <v>1567.140230801019</v>
       </c>
       <c r="AD2" t="n">
-        <v>1102765.481151663</v>
+        <v>1266211.39419287</v>
       </c>
       <c r="AE2" t="n">
-        <v>1508852.381891148</v>
+        <v>1732486.290838904</v>
       </c>
       <c r="AF2" t="n">
         <v>5.418433717869454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>1364849.628251075</v>
+        <v>1567140.230801019</v>
       </c>
     </row>
     <row r="3">
@@ -51930,28 +51930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>592.6986217332459</v>
+        <v>698.4560890399308</v>
       </c>
       <c r="AB3" t="n">
-        <v>810.9564022731844</v>
+        <v>955.65843473236</v>
       </c>
       <c r="AC3" t="n">
-        <v>733.55986142469</v>
+        <v>864.45173499654</v>
       </c>
       <c r="AD3" t="n">
-        <v>592698.6217332459</v>
+        <v>698456.0890399308</v>
       </c>
       <c r="AE3" t="n">
-        <v>810956.4022731844</v>
+        <v>955658.43473236</v>
       </c>
       <c r="AF3" t="n">
         <v>8.188329030977962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>733559.86142469</v>
+        <v>864451.73499654</v>
       </c>
     </row>
     <row r="4">
@@ -52036,28 +52036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.4390184713716</v>
+        <v>592.6433703935435</v>
       </c>
       <c r="AB4" t="n">
-        <v>679.2497664163074</v>
+        <v>810.8808049526864</v>
       </c>
       <c r="AC4" t="n">
-        <v>614.4231220425687</v>
+        <v>733.4914790063589</v>
       </c>
       <c r="AD4" t="n">
-        <v>496439.0184713716</v>
+        <v>592643.3703935435</v>
       </c>
       <c r="AE4" t="n">
-        <v>679249.7664163073</v>
+        <v>810880.8049526864</v>
       </c>
       <c r="AF4" t="n">
         <v>9.168318688709348e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.76666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>614423.1220425687</v>
+        <v>733491.4790063589</v>
       </c>
     </row>
     <row r="5">
@@ -52142,28 +52142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.3035562749317</v>
+        <v>554.4737427783228</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.0711446212852</v>
+        <v>758.6554365244166</v>
       </c>
       <c r="AC5" t="n">
-        <v>567.2243546785079</v>
+        <v>686.2504264421182</v>
       </c>
       <c r="AD5" t="n">
-        <v>458303.5562749318</v>
+        <v>554473.7427783229</v>
       </c>
       <c r="AE5" t="n">
-        <v>627071.1446212851</v>
+        <v>758655.4365244166</v>
       </c>
       <c r="AF5" t="n">
         <v>9.679409610961623e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.725</v>
       </c>
       <c r="AH5" t="n">
-        <v>567224.3546785079</v>
+        <v>686250.4264421181</v>
       </c>
     </row>
     <row r="6">
@@ -52248,28 +52248,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>441.6711306626039</v>
+        <v>528.1877275848542</v>
       </c>
       <c r="AB6" t="n">
-        <v>604.3139261276672</v>
+        <v>722.6897508795669</v>
       </c>
       <c r="AC6" t="n">
-        <v>546.6390531779642</v>
+        <v>653.7172553570562</v>
       </c>
       <c r="AD6" t="n">
-        <v>441671.1306626039</v>
+        <v>528187.7275848542</v>
       </c>
       <c r="AE6" t="n">
-        <v>604313.9261276672</v>
+        <v>722689.7508795669</v>
       </c>
       <c r="AF6" t="n">
         <v>9.999983236238157e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>546639.0531779642</v>
+        <v>653717.2553570562</v>
       </c>
     </row>
     <row r="7">
@@ -52354,28 +52354,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>421.1557350383075</v>
+        <v>507.7396517682623</v>
       </c>
       <c r="AB7" t="n">
-        <v>576.243856759127</v>
+        <v>694.7117914418681</v>
       </c>
       <c r="AC7" t="n">
-        <v>521.2479518333676</v>
+        <v>628.4094731007787</v>
       </c>
       <c r="AD7" t="n">
-        <v>421155.7350383075</v>
+        <v>507739.6517682623</v>
       </c>
       <c r="AE7" t="n">
-        <v>576243.856759127</v>
+        <v>694711.7914418681</v>
       </c>
       <c r="AF7" t="n">
         <v>1.020789937312036e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.75416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>521247.9518333676</v>
+        <v>628409.4731007786</v>
       </c>
     </row>
     <row r="8">
@@ -52460,28 +52460,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>413.136574107489</v>
+        <v>499.6190056109585</v>
       </c>
       <c r="AB8" t="n">
-        <v>565.2716869931694</v>
+        <v>683.6007651118213</v>
       </c>
       <c r="AC8" t="n">
-        <v>511.322950550336</v>
+        <v>618.3588675292481</v>
       </c>
       <c r="AD8" t="n">
-        <v>413136.574107489</v>
+        <v>499619.0056109585</v>
       </c>
       <c r="AE8" t="n">
-        <v>565271.6869931694</v>
+        <v>683600.7651118212</v>
       </c>
       <c r="AF8" t="n">
         <v>1.036057419329955e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.49166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>511322.950550336</v>
+        <v>618358.8675292481</v>
       </c>
     </row>
     <row r="9">
@@ -52566,28 +52566,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>406.8595546439233</v>
+        <v>493.3419861473928</v>
       </c>
       <c r="AB9" t="n">
-        <v>556.6831920405642</v>
+        <v>675.0122701592161</v>
       </c>
       <c r="AC9" t="n">
-        <v>503.5541295019791</v>
+        <v>610.5900464808911</v>
       </c>
       <c r="AD9" t="n">
-        <v>406859.5546439233</v>
+        <v>493341.9861473928</v>
       </c>
       <c r="AE9" t="n">
-        <v>556683.1920405643</v>
+        <v>675012.2701592161</v>
       </c>
       <c r="AF9" t="n">
         <v>1.047105682670558e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.30833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>503554.1295019791</v>
+        <v>610590.0464808912</v>
       </c>
     </row>
     <row r="10">
@@ -52672,28 +52672,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>401.0428650843366</v>
+        <v>477.9731922331506</v>
       </c>
       <c r="AB10" t="n">
-        <v>548.7245407709054</v>
+        <v>653.9840083024151</v>
       </c>
       <c r="AC10" t="n">
-        <v>496.3550407394594</v>
+        <v>591.5686924223522</v>
       </c>
       <c r="AD10" t="n">
-        <v>401042.8650843366</v>
+        <v>477973.1922331506</v>
       </c>
       <c r="AE10" t="n">
-        <v>548724.5407709053</v>
+        <v>653984.008302415</v>
       </c>
       <c r="AF10" t="n">
         <v>1.057197009816305e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.14166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>496355.0407394593</v>
+        <v>591568.6924223523</v>
       </c>
     </row>
     <row r="11">
@@ -52778,28 +52778,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>396.3069929593249</v>
+        <v>473.2373201081388</v>
       </c>
       <c r="AB11" t="n">
-        <v>542.2447115975318</v>
+        <v>647.5041791290413</v>
       </c>
       <c r="AC11" t="n">
-        <v>490.4936373678951</v>
+        <v>585.7072890507881</v>
       </c>
       <c r="AD11" t="n">
-        <v>396306.9929593249</v>
+        <v>473237.3201081388</v>
       </c>
       <c r="AE11" t="n">
-        <v>542244.7115975318</v>
+        <v>647504.1791290413</v>
       </c>
       <c r="AF11" t="n">
         <v>1.064330534177953e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.02916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>490493.6373678951</v>
+        <v>585707.289050788</v>
       </c>
     </row>
     <row r="12">
@@ -52884,28 +52884,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>382.4262760011529</v>
+        <v>468.9760273123269</v>
       </c>
       <c r="AB12" t="n">
-        <v>523.252502281348</v>
+        <v>641.6736903308415</v>
       </c>
       <c r="AC12" t="n">
-        <v>473.3140178531148</v>
+        <v>580.4332539203458</v>
       </c>
       <c r="AD12" t="n">
-        <v>382426.2760011529</v>
+        <v>468976.0273123269</v>
       </c>
       <c r="AE12" t="n">
-        <v>523252.502281348</v>
+        <v>641673.6903308415</v>
       </c>
       <c r="AF12" t="n">
         <v>1.070202642646384e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.93333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>473314.0178531148</v>
+        <v>580433.2539203458</v>
       </c>
     </row>
     <row r="13">
@@ -52990,28 +52990,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>378.948743374838</v>
+        <v>465.4984946860121</v>
       </c>
       <c r="AB13" t="n">
-        <v>518.494388724112</v>
+        <v>636.9155767736055</v>
       </c>
       <c r="AC13" t="n">
-        <v>469.0100119757271</v>
+        <v>576.1292480429584</v>
       </c>
       <c r="AD13" t="n">
-        <v>378948.743374838</v>
+        <v>465498.494686012</v>
       </c>
       <c r="AE13" t="n">
-        <v>518494.3887241121</v>
+        <v>636915.5767736055</v>
       </c>
       <c r="AF13" t="n">
         <v>1.074334867124168e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.87083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>469010.0119757272</v>
+        <v>576129.2480429583</v>
       </c>
     </row>
     <row r="14">
@@ -53096,28 +53096,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>375.5521187892355</v>
+        <v>462.1018701004094</v>
       </c>
       <c r="AB14" t="n">
-        <v>513.8469771175897</v>
+        <v>632.2681651670832</v>
       </c>
       <c r="AC14" t="n">
-        <v>464.8061428102482</v>
+        <v>571.9253788774793</v>
       </c>
       <c r="AD14" t="n">
-        <v>375552.1187892355</v>
+        <v>462101.8701004094</v>
       </c>
       <c r="AE14" t="n">
-        <v>513846.9771175898</v>
+        <v>632268.1651670833</v>
       </c>
       <c r="AF14" t="n">
         <v>1.078423594502186e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.80416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>464806.1428102482</v>
+        <v>571925.3788774792</v>
       </c>
     </row>
     <row r="15">
@@ -53202,28 +53202,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>372.1089602018117</v>
+        <v>458.6587115129856</v>
       </c>
       <c r="AB15" t="n">
-        <v>509.1358956368404</v>
+        <v>627.5570836863338</v>
       </c>
       <c r="AC15" t="n">
-        <v>460.5446803339771</v>
+        <v>567.6639164012081</v>
       </c>
       <c r="AD15" t="n">
-        <v>372108.9602018117</v>
+        <v>458658.7115129856</v>
       </c>
       <c r="AE15" t="n">
-        <v>509135.8956368404</v>
+        <v>627557.0836863338</v>
       </c>
       <c r="AF15" t="n">
         <v>1.082468824780438e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.74166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>460544.6803339771</v>
+        <v>567663.9164012081</v>
       </c>
     </row>
     <row r="16">
@@ -53308,28 +53308,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>369.3626350112611</v>
+        <v>455.9123863224351</v>
       </c>
       <c r="AB16" t="n">
-        <v>505.3782523518126</v>
+        <v>623.7994404013061</v>
       </c>
       <c r="AC16" t="n">
-        <v>457.1456612501868</v>
+        <v>564.264897317418</v>
       </c>
       <c r="AD16" t="n">
-        <v>369362.6350112611</v>
+        <v>455912.3863224351</v>
       </c>
       <c r="AE16" t="n">
-        <v>505378.2523518127</v>
+        <v>623799.4404013061</v>
       </c>
       <c r="AF16" t="n">
         <v>1.084513188469448e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.7125</v>
       </c>
       <c r="AH16" t="n">
-        <v>457145.6612501869</v>
+        <v>564264.897317418</v>
       </c>
     </row>
     <row r="17">
@@ -53414,28 +53414,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>369.0050369515344</v>
+        <v>455.5547882627083</v>
       </c>
       <c r="AB17" t="n">
-        <v>504.8889709103815</v>
+        <v>623.3101589598749</v>
       </c>
       <c r="AC17" t="n">
-        <v>456.7030761428152</v>
+        <v>563.8223122100462</v>
       </c>
       <c r="AD17" t="n">
-        <v>369005.0369515343</v>
+        <v>455554.7882627082</v>
       </c>
       <c r="AE17" t="n">
-        <v>504888.9709103815</v>
+        <v>623310.1589598749</v>
       </c>
       <c r="AF17" t="n">
         <v>1.086644546357989e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.67916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>456703.0761428152</v>
+        <v>563822.3122100462</v>
       </c>
     </row>
   </sheetData>
@@ -53711,28 +53711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1667.185566770221</v>
+        <v>1871.64847142238</v>
       </c>
       <c r="AB2" t="n">
-        <v>2281.116843491251</v>
+        <v>2560.872009903069</v>
       </c>
       <c r="AC2" t="n">
-        <v>2063.410253516043</v>
+        <v>2316.465979484359</v>
       </c>
       <c r="AD2" t="n">
-        <v>1667185.566770221</v>
+        <v>1871648.47142238</v>
       </c>
       <c r="AE2" t="n">
-        <v>2281116.843491251</v>
+        <v>2560872.009903069</v>
       </c>
       <c r="AF2" t="n">
         <v>3.940602363404458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.55833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2063410.253516043</v>
+        <v>2316465.979484359</v>
       </c>
     </row>
     <row r="3">
@@ -53817,28 +53817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>723.7309639486253</v>
+        <v>840.4995896564401</v>
       </c>
       <c r="AB3" t="n">
-        <v>990.2406336312209</v>
+        <v>1150.008618792847</v>
       </c>
       <c r="AC3" t="n">
-        <v>895.7334573689145</v>
+        <v>1040.25341026249</v>
       </c>
       <c r="AD3" t="n">
-        <v>723730.9639486254</v>
+        <v>840499.5896564401</v>
       </c>
       <c r="AE3" t="n">
-        <v>990240.6336312209</v>
+        <v>1150008.618792847</v>
       </c>
       <c r="AF3" t="n">
         <v>6.787772074206561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>895733.4573689145</v>
+        <v>1040253.41026249</v>
       </c>
     </row>
     <row r="4">
@@ -53923,28 +53923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>579.8173673409214</v>
+        <v>686.8828186446998</v>
       </c>
       <c r="AB4" t="n">
-        <v>793.3317017327694</v>
+        <v>939.8233756009498</v>
       </c>
       <c r="AC4" t="n">
-        <v>717.6172375674297</v>
+        <v>850.1279516839866</v>
       </c>
       <c r="AD4" t="n">
-        <v>579817.3673409213</v>
+        <v>686882.8186446998</v>
       </c>
       <c r="AE4" t="n">
-        <v>793331.7017327694</v>
+        <v>939823.3756009499</v>
       </c>
       <c r="AF4" t="n">
         <v>7.839149624785747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.89166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>717617.2375674297</v>
+        <v>850127.9516839866</v>
       </c>
     </row>
     <row r="5">
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>529.5610422795852</v>
+        <v>626.9243302091844</v>
       </c>
       <c r="AB5" t="n">
-        <v>724.5687806312662</v>
+        <v>857.7855265416555</v>
       </c>
       <c r="AC5" t="n">
-        <v>655.4169531464879</v>
+        <v>775.9196797980669</v>
       </c>
       <c r="AD5" t="n">
-        <v>529561.0422795851</v>
+        <v>626924.3302091844</v>
       </c>
       <c r="AE5" t="n">
-        <v>724568.7806312662</v>
+        <v>857785.5265416555</v>
       </c>
       <c r="AF5" t="n">
         <v>8.378398222690287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.54583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>655416.9531464879</v>
+        <v>775919.679798067</v>
       </c>
     </row>
     <row r="6">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>497.2923262576182</v>
+        <v>594.6214487684367</v>
       </c>
       <c r="AB6" t="n">
-        <v>680.4172997747326</v>
+        <v>813.5872990518742</v>
       </c>
       <c r="AC6" t="n">
-        <v>615.4792276559094</v>
+        <v>735.9396691073084</v>
       </c>
       <c r="AD6" t="n">
-        <v>497292.3262576183</v>
+        <v>594621.4487684367</v>
       </c>
       <c r="AE6" t="n">
-        <v>680417.2997747326</v>
+        <v>813587.2990518742</v>
       </c>
       <c r="AF6" t="n">
         <v>8.715625115548957e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.79166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>615479.2276559094</v>
+        <v>735939.6691073084</v>
       </c>
     </row>
     <row r="7">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>482.7767508152367</v>
+        <v>570.3363901441714</v>
       </c>
       <c r="AB7" t="n">
-        <v>660.5564490724735</v>
+        <v>780.3594104609823</v>
       </c>
       <c r="AC7" t="n">
-        <v>597.5138686697948</v>
+        <v>705.8830035678968</v>
       </c>
       <c r="AD7" t="n">
-        <v>482776.7508152367</v>
+        <v>570336.3901441714</v>
       </c>
       <c r="AE7" t="n">
-        <v>660556.4490724734</v>
+        <v>780359.4104609824</v>
       </c>
       <c r="AF7" t="n">
         <v>8.946731657508046e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.30416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>597513.8686697948</v>
+        <v>705883.0035678968</v>
       </c>
     </row>
     <row r="8">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>473.5640197271642</v>
+        <v>561.123659056099</v>
       </c>
       <c r="AB8" t="n">
-        <v>647.9511839607619</v>
+        <v>767.7541453492709</v>
       </c>
       <c r="AC8" t="n">
-        <v>586.1116323687444</v>
+        <v>694.4807672668463</v>
       </c>
       <c r="AD8" t="n">
-        <v>473564.0197271642</v>
+        <v>561123.659056099</v>
       </c>
       <c r="AE8" t="n">
-        <v>647951.1839607619</v>
+        <v>767754.1453492709</v>
       </c>
       <c r="AF8" t="n">
         <v>9.094121033757465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.00833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>586111.6323687444</v>
+        <v>694480.7672668464</v>
       </c>
     </row>
     <row r="9">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>454.9334309381164</v>
+        <v>542.5603900747557</v>
       </c>
       <c r="AB9" t="n">
-        <v>622.4599904560177</v>
+        <v>742.3550617753682</v>
       </c>
       <c r="AC9" t="n">
-        <v>563.0532825949783</v>
+        <v>671.5057365813993</v>
       </c>
       <c r="AD9" t="n">
-        <v>454933.4309381164</v>
+        <v>542560.3900747556</v>
       </c>
       <c r="AE9" t="n">
-        <v>622459.9904560178</v>
+        <v>742355.0617753682</v>
       </c>
       <c r="AF9" t="n">
         <v>9.239152179986891e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.725</v>
       </c>
       <c r="AH9" t="n">
-        <v>563053.2825949783</v>
+        <v>671505.7365813993</v>
       </c>
     </row>
     <row r="10">
@@ -54559,28 +54559,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>449.5328222388235</v>
+        <v>537.1597813754628</v>
       </c>
       <c r="AB10" t="n">
-        <v>615.0706393756049</v>
+        <v>734.9657106949553</v>
       </c>
       <c r="AC10" t="n">
-        <v>556.3691608106606</v>
+        <v>664.8216147970816</v>
       </c>
       <c r="AD10" t="n">
-        <v>449532.8222388235</v>
+        <v>537159.7813754628</v>
       </c>
       <c r="AE10" t="n">
-        <v>615070.6393756048</v>
+        <v>734965.7106949553</v>
       </c>
       <c r="AF10" t="n">
         <v>9.323262384033227e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.56666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>556369.1608106606</v>
+        <v>664821.6147970816</v>
       </c>
     </row>
     <row r="11">
@@ -54665,28 +54665,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>444.5149934737051</v>
+        <v>532.0404673838593</v>
       </c>
       <c r="AB11" t="n">
-        <v>608.2050246881886</v>
+        <v>727.9612394434496</v>
       </c>
       <c r="AC11" t="n">
-        <v>550.1587907530604</v>
+        <v>658.4856404509826</v>
       </c>
       <c r="AD11" t="n">
-        <v>444514.9934737051</v>
+        <v>532040.4673838593</v>
       </c>
       <c r="AE11" t="n">
-        <v>608205.0246881886</v>
+        <v>727961.2394434495</v>
       </c>
       <c r="AF11" t="n">
         <v>9.399118783009595e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.425</v>
       </c>
       <c r="AH11" t="n">
-        <v>550158.7907530605</v>
+        <v>658485.6404509826</v>
       </c>
     </row>
     <row r="12">
@@ -54771,28 +54771,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>439.7292567937542</v>
+        <v>527.2547307039083</v>
       </c>
       <c r="AB12" t="n">
-        <v>601.6569686308782</v>
+        <v>721.4131833861394</v>
       </c>
       <c r="AC12" t="n">
-        <v>544.2356719756054</v>
+        <v>652.5625216735275</v>
       </c>
       <c r="AD12" t="n">
-        <v>439729.2567937542</v>
+        <v>527254.7307039083</v>
       </c>
       <c r="AE12" t="n">
-        <v>601656.9686308781</v>
+        <v>721413.1833861393</v>
       </c>
       <c r="AF12" t="n">
         <v>9.474189105312631e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.28333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>544235.6719756054</v>
+        <v>652562.5216735275</v>
       </c>
     </row>
     <row r="13">
@@ -54877,28 +54877,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>435.2750579088078</v>
+        <v>522.8005318189619</v>
       </c>
       <c r="AB13" t="n">
-        <v>595.5625372111084</v>
+        <v>715.3187519663694</v>
       </c>
       <c r="AC13" t="n">
-        <v>538.7228845369501</v>
+        <v>647.0497342348723</v>
       </c>
       <c r="AD13" t="n">
-        <v>435275.0579088078</v>
+        <v>522800.5318189618</v>
       </c>
       <c r="AE13" t="n">
-        <v>595562.5372111084</v>
+        <v>715318.7519663695</v>
       </c>
       <c r="AF13" t="n">
         <v>9.53550308583239e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.175</v>
       </c>
       <c r="AH13" t="n">
-        <v>538722.8845369502</v>
+        <v>647049.7342348723</v>
       </c>
     </row>
     <row r="14">
@@ -54983,28 +54983,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>432.7855413609201</v>
+        <v>510.6430173156759</v>
       </c>
       <c r="AB14" t="n">
-        <v>592.1562708405697</v>
+        <v>698.6843042712875</v>
       </c>
       <c r="AC14" t="n">
-        <v>535.641707448091</v>
+        <v>632.0028548812152</v>
       </c>
       <c r="AD14" t="n">
-        <v>432785.5413609201</v>
+        <v>510643.0173156759</v>
       </c>
       <c r="AE14" t="n">
-        <v>592156.2708405697</v>
+        <v>698684.3042712875</v>
       </c>
       <c r="AF14" t="n">
         <v>9.564980961082275e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.12083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>535641.707448091</v>
+        <v>632002.8548812151</v>
       </c>
     </row>
     <row r="15">
@@ -55089,28 +55089,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>429.1865904669286</v>
+        <v>507.0440664216844</v>
       </c>
       <c r="AB15" t="n">
-        <v>587.2320274529029</v>
+        <v>693.7600608836206</v>
       </c>
       <c r="AC15" t="n">
-        <v>531.1874269381238</v>
+        <v>627.548574371248</v>
       </c>
       <c r="AD15" t="n">
-        <v>429186.5904669286</v>
+        <v>507044.0664216843</v>
       </c>
       <c r="AE15" t="n">
-        <v>587232.0274529029</v>
+        <v>693760.0608836205</v>
       </c>
       <c r="AF15" t="n">
         <v>9.603891756412119e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.05416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>531187.4269381239</v>
+        <v>627548.574371248</v>
       </c>
     </row>
     <row r="16">
@@ -55195,28 +55195,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>416.4806580140559</v>
+        <v>504.0734517319144</v>
       </c>
       <c r="AB16" t="n">
-        <v>569.847210124704</v>
+        <v>689.6955348108066</v>
       </c>
       <c r="AC16" t="n">
-        <v>515.4617921759841</v>
+        <v>623.8719609622253</v>
       </c>
       <c r="AD16" t="n">
-        <v>416480.6580140559</v>
+        <v>504073.4517319144</v>
       </c>
       <c r="AE16" t="n">
-        <v>569847.2101247041</v>
+        <v>689695.5348108066</v>
       </c>
       <c r="AF16" t="n">
         <v>9.643195590078632e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.98333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>515461.7921759841</v>
+        <v>623871.9609622253</v>
       </c>
     </row>
     <row r="17">
@@ -55301,28 +55301,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>413.5900439623651</v>
+        <v>501.1828376802236</v>
       </c>
       <c r="AB17" t="n">
-        <v>565.8921444542888</v>
+        <v>685.7404691403916</v>
       </c>
       <c r="AC17" t="n">
-        <v>511.8841924221838</v>
+        <v>620.294361208425</v>
       </c>
       <c r="AD17" t="n">
-        <v>413590.0439623651</v>
+        <v>501182.8376802236</v>
       </c>
       <c r="AE17" t="n">
-        <v>565892.1444542888</v>
+        <v>685740.4691403916</v>
       </c>
       <c r="AF17" t="n">
         <v>9.675031695348506e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.925</v>
       </c>
       <c r="AH17" t="n">
-        <v>511884.1924221839</v>
+        <v>620294.361208425</v>
       </c>
     </row>
     <row r="18">
@@ -55407,28 +55407,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>411.0952755067166</v>
+        <v>498.6880692245751</v>
       </c>
       <c r="AB18" t="n">
-        <v>562.4786921918541</v>
+        <v>682.3270168779569</v>
       </c>
       <c r="AC18" t="n">
-        <v>508.7965152528655</v>
+        <v>617.2066840391067</v>
       </c>
       <c r="AD18" t="n">
-        <v>411095.2755067166</v>
+        <v>498688.0692245751</v>
       </c>
       <c r="AE18" t="n">
-        <v>562478.6921918541</v>
+        <v>682327.0168779569</v>
       </c>
       <c r="AF18" t="n">
         <v>9.701758302241734e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.87916666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>508796.5152528655</v>
+        <v>617206.6840391067</v>
       </c>
     </row>
     <row r="19">
@@ -55513,28 +55513,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>408.3880774554325</v>
+        <v>495.9808711732909</v>
       </c>
       <c r="AB19" t="n">
-        <v>558.7745843849382</v>
+        <v>678.6229090710409</v>
       </c>
       <c r="AC19" t="n">
-        <v>505.4459222962938</v>
+        <v>613.8560910825349</v>
       </c>
       <c r="AD19" t="n">
-        <v>408388.0774554325</v>
+        <v>495980.8711732909</v>
       </c>
       <c r="AE19" t="n">
-        <v>558774.5843849382</v>
+        <v>678622.9090710409</v>
       </c>
       <c r="AF19" t="n">
         <v>9.720231104064996e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.85</v>
       </c>
       <c r="AH19" t="n">
-        <v>505445.9222962938</v>
+        <v>613856.091082535</v>
       </c>
     </row>
     <row r="20">
@@ -55619,28 +55619,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>405.3455308341611</v>
+        <v>492.9383245520196</v>
       </c>
       <c r="AB20" t="n">
-        <v>554.6116378700312</v>
+        <v>674.4599625561339</v>
       </c>
       <c r="AC20" t="n">
-        <v>501.6802815540374</v>
+        <v>610.0904503402785</v>
       </c>
       <c r="AD20" t="n">
-        <v>405345.5308341611</v>
+        <v>492938.3245520196</v>
       </c>
       <c r="AE20" t="n">
-        <v>554611.6378700313</v>
+        <v>674459.9625561339</v>
       </c>
       <c r="AF20" t="n">
         <v>9.743027327591571e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.80833333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>501680.2815540374</v>
+        <v>610090.4503402784</v>
       </c>
     </row>
     <row r="21">
@@ -55725,28 +55725,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>402.7768359985382</v>
+        <v>490.3696297163967</v>
       </c>
       <c r="AB21" t="n">
-        <v>551.0970362731138</v>
+        <v>670.9453609592165</v>
       </c>
       <c r="AC21" t="n">
-        <v>498.5011086007553</v>
+        <v>606.9112773869964</v>
       </c>
       <c r="AD21" t="n">
-        <v>402776.8359985382</v>
+        <v>490369.6297163967</v>
       </c>
       <c r="AE21" t="n">
-        <v>551097.0362731138</v>
+        <v>670945.3609592165</v>
       </c>
       <c r="AF21" t="n">
         <v>9.763858359434823e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>498501.1086007553</v>
+        <v>606911.2773869964</v>
       </c>
     </row>
     <row r="22">
@@ -55831,28 +55831,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>401.2354283962176</v>
+        <v>488.8282221140761</v>
       </c>
       <c r="AB22" t="n">
-        <v>548.9880143895147</v>
+        <v>668.8363390756174</v>
       </c>
       <c r="AC22" t="n">
-        <v>496.5933688056962</v>
+        <v>605.0035375919374</v>
       </c>
       <c r="AD22" t="n">
-        <v>401235.4283962176</v>
+        <v>488828.2221140761</v>
       </c>
       <c r="AE22" t="n">
-        <v>548988.0143895147</v>
+        <v>668836.3390756174</v>
       </c>
       <c r="AF22" t="n">
         <v>9.778007739554767e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.75</v>
       </c>
       <c r="AH22" t="n">
-        <v>496593.3688056962</v>
+        <v>605003.5375919373</v>
       </c>
     </row>
     <row r="23">
@@ -55937,28 +55937,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>399.4810080986298</v>
+        <v>487.0738018164882</v>
       </c>
       <c r="AB23" t="n">
-        <v>546.5875391387941</v>
+        <v>666.4358638248967</v>
       </c>
       <c r="AC23" t="n">
-        <v>494.4219915438161</v>
+        <v>602.8321603300573</v>
       </c>
       <c r="AD23" t="n">
-        <v>399481.0080986298</v>
+        <v>487073.8018164883</v>
       </c>
       <c r="AE23" t="n">
-        <v>546587.5391387941</v>
+        <v>666435.8638248967</v>
       </c>
       <c r="AF23" t="n">
         <v>9.800803963081343e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.70833333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>494421.9915438161</v>
+        <v>602832.1603300573</v>
       </c>
     </row>
     <row r="24">
@@ -56043,28 +56043,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>399.153708335777</v>
+        <v>486.7465020536356</v>
       </c>
       <c r="AB24" t="n">
-        <v>546.1397131638124</v>
+        <v>665.9880378499153</v>
       </c>
       <c r="AC24" t="n">
-        <v>494.0169054513591</v>
+        <v>602.4270742376003</v>
       </c>
       <c r="AD24" t="n">
-        <v>399153.708335777</v>
+        <v>486746.5020536356</v>
       </c>
       <c r="AE24" t="n">
-        <v>546139.7131638124</v>
+        <v>665988.0378499152</v>
       </c>
       <c r="AF24" t="n">
         <v>9.798052694724689e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.7125</v>
       </c>
       <c r="AH24" t="n">
-        <v>494016.9054513591</v>
+        <v>602427.0742376003</v>
       </c>
     </row>
     <row r="25">
@@ -56149,28 +56149,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>400.2307138175274</v>
+        <v>487.8235075353859</v>
       </c>
       <c r="AB25" t="n">
-        <v>547.6133195780718</v>
+        <v>667.4616442641744</v>
       </c>
       <c r="AC25" t="n">
-        <v>495.3498729376611</v>
+        <v>603.7600417239023</v>
       </c>
       <c r="AD25" t="n">
-        <v>400230.7138175274</v>
+        <v>487823.5075353859</v>
       </c>
       <c r="AE25" t="n">
-        <v>547613.3195780718</v>
+        <v>667461.6442641744</v>
       </c>
       <c r="AF25" t="n">
         <v>9.795301426368032e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.71666666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>495349.8729376611</v>
+        <v>603760.0417239023</v>
       </c>
     </row>
   </sheetData>
@@ -56446,28 +56446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.769526618161</v>
+        <v>358.0320547767517</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.3740794767525</v>
+        <v>489.8752526050359</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.4078515407405</v>
+        <v>443.1222460406457</v>
       </c>
       <c r="AD2" t="n">
-        <v>267769.526618161</v>
+        <v>358032.0547767517</v>
       </c>
       <c r="AE2" t="n">
-        <v>366374.0794767524</v>
+        <v>489875.2526050359</v>
       </c>
       <c r="AF2" t="n">
         <v>2.117083142660944e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.76666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>331407.8515407405</v>
+        <v>443122.2460406458</v>
       </c>
     </row>
   </sheetData>
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>671.3763141608287</v>
+        <v>794.0693965398132</v>
       </c>
       <c r="AB2" t="n">
-        <v>918.6066920674208</v>
+        <v>1086.480780215123</v>
       </c>
       <c r="AC2" t="n">
-        <v>830.9361586490953</v>
+        <v>982.7885794367434</v>
       </c>
       <c r="AD2" t="n">
-        <v>671376.3141608287</v>
+        <v>794069.3965398131</v>
       </c>
       <c r="AE2" t="n">
-        <v>918606.6920674208</v>
+        <v>1086480.780215123</v>
       </c>
       <c r="AF2" t="n">
         <v>8.28452010610976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>830936.1586490953</v>
+        <v>982788.5794367434</v>
       </c>
     </row>
     <row r="3">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.2562364167651</v>
+        <v>545.0620920448633</v>
       </c>
       <c r="AB3" t="n">
-        <v>603.7462495166683</v>
+        <v>745.7780007781711</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.1255548259797</v>
+        <v>674.6019950898998</v>
       </c>
       <c r="AD3" t="n">
-        <v>441256.2364167651</v>
+        <v>545062.0920448634</v>
       </c>
       <c r="AE3" t="n">
-        <v>603746.2495166683</v>
+        <v>745778.0007781711</v>
       </c>
       <c r="AF3" t="n">
         <v>1.087846848594836e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.9125</v>
       </c>
       <c r="AH3" t="n">
-        <v>546125.5548259798</v>
+        <v>674601.9950898997</v>
       </c>
     </row>
     <row r="4">
@@ -56955,28 +56955,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.3305207601581</v>
+        <v>481.2511716970844</v>
       </c>
       <c r="AB4" t="n">
-        <v>542.2769033726051</v>
+        <v>658.469084419217</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.522756805137</v>
+        <v>595.6257191694106</v>
       </c>
       <c r="AD4" t="n">
-        <v>396330.5207601581</v>
+        <v>481251.1716970844</v>
       </c>
       <c r="AE4" t="n">
-        <v>542276.9033726051</v>
+        <v>658469.084419217</v>
       </c>
       <c r="AF4" t="n">
         <v>1.176269818416588e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.4125</v>
       </c>
       <c r="AH4" t="n">
-        <v>490522.756805137</v>
+        <v>595625.7191694105</v>
       </c>
     </row>
     <row r="5">
@@ -57061,28 +57061,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>369.7338182053217</v>
+        <v>454.7217889499524</v>
       </c>
       <c r="AB5" t="n">
-        <v>505.886121573373</v>
+        <v>622.1704125508264</v>
       </c>
       <c r="AC5" t="n">
-        <v>457.6050601460405</v>
+        <v>562.7913415986333</v>
       </c>
       <c r="AD5" t="n">
-        <v>369733.8182053217</v>
+        <v>454721.7889499525</v>
       </c>
       <c r="AE5" t="n">
-        <v>505886.121573373</v>
+        <v>622170.4125508264</v>
       </c>
       <c r="AF5" t="n">
         <v>1.222066782798108e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.725</v>
       </c>
       <c r="AH5" t="n">
-        <v>457605.0601460405</v>
+        <v>562791.3415986332</v>
       </c>
     </row>
     <row r="6">
@@ -57167,28 +57167,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.7008048275221</v>
+        <v>443.5872903456676</v>
       </c>
       <c r="AB6" t="n">
-        <v>490.79026592767</v>
+        <v>606.935700341034</v>
       </c>
       <c r="AC6" t="n">
-        <v>443.9499317759968</v>
+        <v>549.0106089400905</v>
       </c>
       <c r="AD6" t="n">
-        <v>358700.8048275221</v>
+        <v>443587.2903456676</v>
       </c>
       <c r="AE6" t="n">
-        <v>490790.26592767</v>
+        <v>606935.700341034</v>
       </c>
       <c r="AF6" t="n">
         <v>1.250189549801969e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.325</v>
       </c>
       <c r="AH6" t="n">
-        <v>443949.9317759969</v>
+        <v>549010.6089400905</v>
       </c>
     </row>
     <row r="7">
@@ -57273,28 +57273,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.4594515159641</v>
+        <v>425.9711600111567</v>
       </c>
       <c r="AB7" t="n">
-        <v>479.5140827439486</v>
+        <v>582.8325336485356</v>
       </c>
       <c r="AC7" t="n">
-        <v>433.7499316891074</v>
+        <v>527.2078146477172</v>
       </c>
       <c r="AD7" t="n">
-        <v>350459.4515159641</v>
+        <v>425971.1600111567</v>
       </c>
       <c r="AE7" t="n">
-        <v>479514.0827439486</v>
+        <v>582832.5336485356</v>
       </c>
       <c r="AF7" t="n">
         <v>1.268591508248118e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.075</v>
       </c>
       <c r="AH7" t="n">
-        <v>433749.9316891074</v>
+        <v>527207.8146477172</v>
       </c>
     </row>
     <row r="8">
@@ -57379,28 +57379,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>333.8866457198669</v>
+        <v>418.8404510457169</v>
       </c>
       <c r="AB8" t="n">
-        <v>456.838438713138</v>
+        <v>573.0759830573434</v>
       </c>
       <c r="AC8" t="n">
-        <v>413.238419299131</v>
+        <v>518.3824155515437</v>
       </c>
       <c r="AD8" t="n">
-        <v>333886.6457198669</v>
+        <v>418840.4510457169</v>
       </c>
       <c r="AE8" t="n">
-        <v>456838.438713138</v>
+        <v>573075.9830573434</v>
       </c>
       <c r="AF8" t="n">
         <v>1.283042763751027e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.88333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>413238.419299131</v>
+        <v>518382.4155515437</v>
       </c>
     </row>
     <row r="9">
@@ -57485,28 +57485,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>330.4077840562007</v>
+        <v>415.3615893820508</v>
       </c>
       <c r="AB9" t="n">
-        <v>452.0785067083653</v>
+        <v>568.3160510525709</v>
       </c>
       <c r="AC9" t="n">
-        <v>408.9327685242874</v>
+        <v>514.0767647767</v>
       </c>
       <c r="AD9" t="n">
-        <v>330407.7840562008</v>
+        <v>415361.5893820508</v>
       </c>
       <c r="AE9" t="n">
-        <v>452078.5067083653</v>
+        <v>568316.0510525708</v>
       </c>
       <c r="AF9" t="n">
         <v>1.289436664567062e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.79583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>408932.7685242874</v>
+        <v>514076.7647766999</v>
       </c>
     </row>
     <row r="10">
@@ -57591,28 +57591,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>331.4369204153066</v>
+        <v>416.3907257411565</v>
       </c>
       <c r="AB10" t="n">
-        <v>453.4866164771857</v>
+        <v>569.7241608213913</v>
       </c>
       <c r="AC10" t="n">
-        <v>410.206490273066</v>
+        <v>515.3504865254786</v>
       </c>
       <c r="AD10" t="n">
-        <v>331436.9204153066</v>
+        <v>416390.7257411565</v>
       </c>
       <c r="AE10" t="n">
-        <v>453486.6164771857</v>
+        <v>569724.1608213913</v>
       </c>
       <c r="AF10" t="n">
         <v>1.28870890349857e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.80833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>410206.490273066</v>
+        <v>515350.4865254786</v>
       </c>
     </row>
   </sheetData>
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>906.4937339021131</v>
+        <v>1049.750633331241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1240.30471840594</v>
+        <v>1436.31512825323</v>
       </c>
       <c r="AC2" t="n">
-        <v>1121.931776859882</v>
+        <v>1299.235228293684</v>
       </c>
       <c r="AD2" t="n">
-        <v>906493.7339021132</v>
+        <v>1049750.633331242</v>
       </c>
       <c r="AE2" t="n">
-        <v>1240304.71840594</v>
+        <v>1436315.12825323</v>
       </c>
       <c r="AF2" t="n">
         <v>6.372411408165623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1121931.776859882</v>
+        <v>1299235.228293684</v>
       </c>
     </row>
     <row r="3">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.6213943647296</v>
+        <v>637.6243365785884</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.756089367366</v>
+        <v>872.4257473072394</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.2046310137391</v>
+        <v>789.1626584414626</v>
       </c>
       <c r="AD3" t="n">
-        <v>532621.3943647295</v>
+        <v>637624.3365785885</v>
       </c>
       <c r="AE3" t="n">
-        <v>728756.089367366</v>
+        <v>872425.7473072393</v>
       </c>
       <c r="AF3" t="n">
         <v>9.089029593283952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.22083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>659204.6310137392</v>
+        <v>789162.6584414626</v>
       </c>
     </row>
     <row r="4">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>460.1493896674964</v>
+        <v>555.5973839322331</v>
       </c>
       <c r="AB4" t="n">
-        <v>629.5966953014142</v>
+        <v>760.1928519227456</v>
       </c>
       <c r="AC4" t="n">
-        <v>569.5088703463582</v>
+        <v>687.6411130726068</v>
       </c>
       <c r="AD4" t="n">
-        <v>460149.3896674964</v>
+        <v>555597.3839322331</v>
       </c>
       <c r="AE4" t="n">
-        <v>629596.6953014142</v>
+        <v>760192.8519227456</v>
       </c>
       <c r="AF4" t="n">
         <v>1.004209090580033e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.20416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>569508.8703463582</v>
+        <v>687641.1130726069</v>
       </c>
     </row>
     <row r="5">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>427.520161992894</v>
+        <v>513.4473737272893</v>
       </c>
       <c r="AB5" t="n">
-        <v>584.9519464970931</v>
+        <v>702.5213484331304</v>
       </c>
       <c r="AC5" t="n">
-        <v>529.1249537086229</v>
+        <v>635.4736969335769</v>
       </c>
       <c r="AD5" t="n">
-        <v>427520.161992894</v>
+        <v>513447.3737272893</v>
       </c>
       <c r="AE5" t="n">
-        <v>584951.9464970931</v>
+        <v>702521.3484331303</v>
       </c>
       <c r="AF5" t="n">
         <v>1.05216302548858e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.32916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>529124.953708623</v>
+        <v>635473.6969335768</v>
       </c>
     </row>
     <row r="6">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>403.8540734746064</v>
+        <v>489.8486050167061</v>
       </c>
       <c r="AB6" t="n">
-        <v>552.5709601122336</v>
+        <v>670.2324719791122</v>
       </c>
       <c r="AC6" t="n">
-        <v>499.8343632173346</v>
+        <v>606.2664255306075</v>
       </c>
       <c r="AD6" t="n">
-        <v>403854.0734746064</v>
+        <v>489848.6050167061</v>
       </c>
       <c r="AE6" t="n">
-        <v>552570.9601122336</v>
+        <v>670232.4719791122</v>
       </c>
       <c r="AF6" t="n">
         <v>1.082805404744813e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH6" t="n">
-        <v>499834.3632173346</v>
+        <v>606266.4255306076</v>
       </c>
     </row>
     <row r="7">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>394.1607081923784</v>
+        <v>480.0537545079929</v>
       </c>
       <c r="AB7" t="n">
-        <v>539.3080700919945</v>
+        <v>656.8307253947837</v>
       </c>
       <c r="AC7" t="n">
-        <v>487.8372648060439</v>
+        <v>594.1437228308178</v>
       </c>
       <c r="AD7" t="n">
-        <v>394160.7081923784</v>
+        <v>480053.7545079929</v>
       </c>
       <c r="AE7" t="n">
-        <v>539308.0700919945</v>
+        <v>656830.7253947837</v>
       </c>
       <c r="AF7" t="n">
         <v>1.10358852904398e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.475</v>
       </c>
       <c r="AH7" t="n">
-        <v>487837.2648060439</v>
+        <v>594143.7228308178</v>
       </c>
     </row>
     <row r="8">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>386.3211989813271</v>
+        <v>472.2142452969416</v>
       </c>
       <c r="AB8" t="n">
-        <v>528.5817077346968</v>
+        <v>646.1043630374861</v>
       </c>
       <c r="AC8" t="n">
-        <v>478.1346114175827</v>
+        <v>584.4410694423567</v>
       </c>
       <c r="AD8" t="n">
-        <v>386321.1989813271</v>
+        <v>472214.2452969415</v>
       </c>
       <c r="AE8" t="n">
-        <v>528581.7077346968</v>
+        <v>646104.3630374861</v>
       </c>
       <c r="AF8" t="n">
         <v>1.119141156581887e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.23333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>478134.6114175827</v>
+        <v>584441.0694423567</v>
       </c>
     </row>
     <row r="9">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>380.9548338006252</v>
+        <v>457.3612630046791</v>
       </c>
       <c r="AB9" t="n">
-        <v>521.2392101471376</v>
+        <v>625.7818573978805</v>
       </c>
       <c r="AC9" t="n">
-        <v>471.49287149452</v>
+        <v>566.0581152181791</v>
       </c>
       <c r="AD9" t="n">
-        <v>380954.8338006252</v>
+        <v>457361.2630046791</v>
       </c>
       <c r="AE9" t="n">
-        <v>521239.2101471375</v>
+        <v>625781.8573978804</v>
       </c>
       <c r="AF9" t="n">
         <v>1.128398672973499e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.09166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>471492.87149452</v>
+        <v>566058.1152181791</v>
       </c>
     </row>
     <row r="10">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>365.7737733728463</v>
+        <v>451.7341394961653</v>
       </c>
       <c r="AB10" t="n">
-        <v>500.4678135287324</v>
+        <v>618.0825787623631</v>
       </c>
       <c r="AC10" t="n">
-        <v>452.7038678165373</v>
+        <v>559.09364492963</v>
       </c>
       <c r="AD10" t="n">
-        <v>365773.7733728463</v>
+        <v>451734.1394961653</v>
       </c>
       <c r="AE10" t="n">
-        <v>500467.8135287325</v>
+        <v>618082.5787623632</v>
       </c>
       <c r="AF10" t="n">
         <v>1.137748764529026e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.95</v>
       </c>
       <c r="AH10" t="n">
-        <v>452703.8678165373</v>
+        <v>559093.6449296301</v>
       </c>
     </row>
     <row r="11">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>361.3715923180927</v>
+        <v>447.3319584414116</v>
       </c>
       <c r="AB11" t="n">
-        <v>494.444555199097</v>
+        <v>612.0593204327278</v>
       </c>
       <c r="AC11" t="n">
-        <v>447.2554608081861</v>
+        <v>553.6452379212791</v>
       </c>
       <c r="AD11" t="n">
-        <v>361371.5923180927</v>
+        <v>447331.9584414116</v>
       </c>
       <c r="AE11" t="n">
-        <v>494444.555199097</v>
+        <v>612059.3204327278</v>
       </c>
       <c r="AF11" t="n">
         <v>1.143951300511406e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.85833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>447255.4608081861</v>
+        <v>553645.237921279</v>
       </c>
     </row>
     <row r="12">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>356.6690647018107</v>
+        <v>442.6294308251296</v>
       </c>
       <c r="AB12" t="n">
-        <v>488.0103494536234</v>
+        <v>605.6251146872542</v>
       </c>
       <c r="AC12" t="n">
-        <v>441.435326628596</v>
+        <v>547.8251037416888</v>
       </c>
       <c r="AD12" t="n">
-        <v>356669.0647018107</v>
+        <v>442629.4308251296</v>
       </c>
       <c r="AE12" t="n">
-        <v>488010.3494536234</v>
+        <v>605625.1146872542</v>
       </c>
       <c r="AF12" t="n">
         <v>1.150894437805114e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.75833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>441435.3266285961</v>
+        <v>547825.1037416889</v>
       </c>
     </row>
     <row r="13">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>354.6804981866705</v>
+        <v>440.6408643099894</v>
       </c>
       <c r="AB13" t="n">
-        <v>485.2895050182455</v>
+        <v>602.9042702518763</v>
       </c>
       <c r="AC13" t="n">
-        <v>438.9741557674014</v>
+        <v>545.3639328804943</v>
       </c>
       <c r="AD13" t="n">
-        <v>354680.4981866705</v>
+        <v>440640.8643099894</v>
       </c>
       <c r="AE13" t="n">
-        <v>485289.5050182455</v>
+        <v>602904.2702518762</v>
       </c>
       <c r="AF13" t="n">
         <v>1.151635039116443e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.74583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>438974.1557674014</v>
+        <v>545363.9328804943</v>
       </c>
     </row>
     <row r="14">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>355.0559967220836</v>
+        <v>441.0163628454025</v>
       </c>
       <c r="AB14" t="n">
-        <v>485.803278680224</v>
+        <v>603.4180439138547</v>
       </c>
       <c r="AC14" t="n">
-        <v>439.4388955921666</v>
+        <v>545.8286727052594</v>
       </c>
       <c r="AD14" t="n">
-        <v>355055.9967220836</v>
+        <v>441016.3628454025</v>
       </c>
       <c r="AE14" t="n">
-        <v>485803.278680224</v>
+        <v>603418.0439138548</v>
       </c>
       <c r="AF14" t="n">
         <v>1.153069954157143e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.725</v>
       </c>
       <c r="AH14" t="n">
-        <v>439438.8955921666</v>
+        <v>545828.6727052594</v>
       </c>
     </row>
   </sheetData>
